--- a/AllResults_Table.xlsx
+++ b/AllResults_Table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40182166.NAPIER-MAIL\Documents\GitHub\CPS-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Università\Year 4\Concurrent of Parrallel Systems\Coursework1\CPS-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Table Of Results" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Complete Table Of Results'!$D$28:$E$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -155,11 +155,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -793,13 +793,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,79 +834,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -915,7 +915,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -952,7 +952,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -978,7 +977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1053,9 +1052,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1077,9 +1074,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1101,9 +1096,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1125,9 +1118,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1149,9 +1140,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1173,9 +1162,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1207,7 +1194,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1342,9 +1329,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1366,9 +1351,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1400,7 +1383,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1413,7 +1396,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1545,7 +1527,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1571,7 +1552,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1609,7 +1590,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786440"/>
@@ -1671,7 +1652,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1697,7 +1677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1735,7 +1715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786112"/>
@@ -1753,7 +1733,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1782,7 +1761,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1812,7 +1791,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1826,7 +1805,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1870,7 +1849,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1896,7 +1874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1971,9 +1949,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -1995,9 +1971,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2019,9 +1993,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2043,9 +2015,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2067,9 +2037,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2091,9 +2059,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2125,7 +2091,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2260,9 +2226,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2284,9 +2248,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2308,9 +2270,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2342,7 +2302,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2355,7 +2315,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2484,7 +2443,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2510,7 +2468,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2548,7 +2506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786440"/>
@@ -2610,7 +2568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2636,7 +2593,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2674,7 +2631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786112"/>
@@ -2692,7 +2649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2721,7 +2677,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2751,7 +2707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2765,7 +2721,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2807,7 +2763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2833,7 +2788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2898,7 +2853,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2911,7 +2866,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3054,7 +3008,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3080,7 +3033,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3118,7 +3071,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510678392"/>
@@ -3177,7 +3130,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3203,7 +3155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3241,7 +3193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510674456"/>
@@ -3282,7 +3234,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3296,7 +3248,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3338,7 +3290,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3364,7 +3315,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3515,7 +3466,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3541,7 +3491,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3579,7 +3529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="431197480"/>
@@ -3633,7 +3583,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3659,7 +3608,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3697,7 +3646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="435004488"/>
@@ -3738,7 +3687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3752,7 +3701,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3829,7 +3778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3904,9 +3853,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -3928,9 +3875,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -3952,9 +3897,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -3976,9 +3919,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4000,9 +3941,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4056,7 +3995,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4191,9 +4130,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4215,9 +4152,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4239,9 +4174,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4263,9 +4196,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4287,9 +4218,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4321,7 +4250,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4456,9 +4385,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4480,9 +4407,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4504,9 +4429,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4528,9 +4451,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4552,9 +4473,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4586,7 +4505,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4759,7 +4678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4797,7 +4716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786440"/>
@@ -4855,7 +4774,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4881,7 +4799,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4919,7 +4837,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786112"/>
@@ -4937,7 +4855,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4963,7 +4880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4993,7 +4910,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5007,7 +4924,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5049,7 +4966,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5075,7 +4991,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5140,7 +5056,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5153,7 +5069,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5290,7 +5205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5316,7 +5230,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5354,7 +5268,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510678392"/>
@@ -5408,7 +5322,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5434,7 +5347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5472,7 +5385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510674456"/>
@@ -5513,7 +5426,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8877,7 +8790,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8828,7 @@
         <xdr:cNvPr id="3" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395EE899-F5B4-4578-AA8B-FEE530D71D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8950,7 +8863,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8982,7 +8901,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9017,7 +8942,7 @@
         <xdr:cNvPr id="10" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3891A0-BF45-4C1A-96D9-CE506C52A58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9052,7 +8977,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9084,316 +9015,30 @@
           <cell r="A3">
             <v>4</v>
           </cell>
-          <cell r="B3">
-            <v>2.3639999999999999</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>400 x 400</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>16</v>
-          </cell>
-          <cell r="B4">
-            <v>9.1419999999999995</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>64</v>
-          </cell>
-          <cell r="B5">
-            <v>30.515999999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>256</v>
-          </cell>
-          <cell r="B6">
-            <v>121.48</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1024</v>
-          </cell>
-          <cell r="B7">
-            <v>484.96199999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>4096</v>
-          </cell>
-          <cell r="B8">
-            <v>1946.1020000000001</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10">
             <v>4</v>
-          </cell>
-          <cell r="B10">
-            <v>13.592000000000001</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>1024x1024</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
             <v>16</v>
           </cell>
-          <cell r="B11">
-            <v>51.320999999999998</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12">
             <v>64</v>
-          </cell>
-          <cell r="B12">
-            <v>201.578</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
             <v>256</v>
           </cell>
-          <cell r="B13">
-            <v>827.55399999999997</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="A14">
             <v>1024</v>
-          </cell>
-          <cell r="B14">
-            <v>3218.9810000000002</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>4</v>
-          </cell>
-          <cell r="B30">
-            <v>4.6859999999999999</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>400 x 400</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>16</v>
-          </cell>
-          <cell r="B31">
-            <v>15.59</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>64</v>
-          </cell>
-          <cell r="B32">
-            <v>60.411000000000001</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>256</v>
-          </cell>
-          <cell r="B33">
-            <v>242.78100000000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>1024</v>
-          </cell>
-          <cell r="B34">
-            <v>966.34400000000005</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>4096</v>
-          </cell>
-          <cell r="B35">
-            <v>3850.1729999999998</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>4</v>
-          </cell>
-          <cell r="B37">
-            <v>26.279</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>16</v>
-          </cell>
-          <cell r="B38">
-            <v>99.918999999999997</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>64</v>
-          </cell>
-          <cell r="B39">
-            <v>401.762</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>256</v>
-          </cell>
-          <cell r="B40">
-            <v>1569.08</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>1024</v>
-          </cell>
-          <cell r="B41">
-            <v>6249.5950000000003</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58" t="str">
-            <v>9 Spheres</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>4</v>
-          </cell>
-          <cell r="B59">
-            <v>4.6859999999999999</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>16</v>
-          </cell>
-          <cell r="B60">
-            <v>15.59</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>64</v>
-          </cell>
-          <cell r="B61">
-            <v>60.411000000000001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>256</v>
-          </cell>
-          <cell r="B62">
-            <v>242.78100000000001</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>1024</v>
-          </cell>
-          <cell r="B63">
-            <v>966.34400000000005</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>4</v>
-          </cell>
-          <cell r="B65">
-            <v>4.952</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>14 Spheres</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>16</v>
-          </cell>
-          <cell r="B66">
-            <v>18.126999999999999</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>64</v>
-          </cell>
-          <cell r="B67">
-            <v>69.436999999999998</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>256</v>
-          </cell>
-          <cell r="B68">
-            <v>274.37799999999999</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>1024</v>
-          </cell>
-          <cell r="B69">
-            <v>1088.4590000000001</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>4</v>
-          </cell>
-          <cell r="B71">
-            <v>5.4820000000000002</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>20 Spheres</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>16</v>
-          </cell>
-          <cell r="B72">
-            <v>20.167000000000002</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>64</v>
-          </cell>
-          <cell r="B73">
-            <v>77.358999999999995</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>256</v>
-          </cell>
-          <cell r="B74">
-            <v>304.05500000000001</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>1024</v>
-          </cell>
-          <cell r="B75">
-            <v>1236.1279999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -9664,102 +9309,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="11" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="11" width="9.88671875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" customWidth="1"/>
+    <col min="13" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
     <col min="22" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="1"/>
-    <col min="27" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" customWidth="1"/>
+    <col min="27" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="10"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="26"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F5" s="5" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="F5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -9835,27 +9480,27 @@
       <c r="Y6" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="14" t="s">
+      <c r="AA6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AB6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="22">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="22">
         <v>400</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E7">
@@ -9894,51 +9539,51 @@
       <c r="P7">
         <v>1.903</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="7">
         <v>1.9028212045174</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="7">
         <v>1.9114295084827999</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="7">
         <v>1.9197329185812999</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="7">
         <v>1.9309968341859001</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="7">
         <v>1.9462168211602999</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="7">
         <v>1.9030676241247</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="7">
         <v>1.9197329185812999</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="7">
         <v>1.9015911281824001</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="7">
         <v>1.9297986757750001</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="7">
         <f>AVERAGE(F7:Y7)</f>
         <v>1.9102193816795552</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="6">
         <f>_xlfn.STDEV.P(F7:O7)</f>
         <v>1.1740528097151337E-2</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="6">
         <f>_xlfn.STDEV.P(P7:Y7)</f>
         <v>1.4448636157911032E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
       <c r="E8">
         <v>16</v>
       </c>
@@ -9975,45 +9620,45 @@
       <c r="P8">
         <v>7.5780000000000003</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="7">
         <v>7.5211994519905003</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="7">
         <v>7.4585342917002002</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="7">
         <v>7.5065208097065002</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="7">
         <v>7.4733920412783004</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="7">
         <v>7.4976453817228998</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="7">
         <v>7.4757768451192996</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="7">
         <v>7.5442491390692004</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="7">
         <v>7.4703411059012996</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="7">
         <v>7.5613313611789001</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="7">
         <f>AVERAGE(F8:Y8)</f>
         <v>7.5214495213833557</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9">
         <v>64</v>
       </c>
@@ -10050,45 +9695,45 @@
       <c r="P9">
         <v>29.981999999999999</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="7">
         <v>29.892309636711001</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="7">
         <v>29.758668383012001</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="7">
         <v>30.078790642510999</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="7">
         <v>29.731582697078998</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="7">
         <v>30.280222693626001</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="7">
         <v>30.483216700054999</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="7">
         <v>29.775592327186001</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="7">
         <v>29.822450803875</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="7">
         <v>30.502762535245001</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="7">
         <f>AVERAGE(F9:Y9)</f>
         <v>30.100779820964995</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
       <c r="E10">
         <v>256</v>
       </c>
@@ -10125,62 +9770,62 @@
       <c r="P10">
         <v>120.986</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="7">
         <v>120.13052177274</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="7">
         <v>121.47574318224</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="7">
         <v>121.92009786333</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="7">
         <v>121.8022117125</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="7">
         <v>121.50770262864</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="7">
         <v>119.86073002708</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="7">
         <v>120.58490509962</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="7">
         <v>119.70405091334</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="7">
         <v>121.81659022012001</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="7">
         <f>AVERAGE(F10:Y10)</f>
         <v>120.84662767098048</v>
       </c>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="4"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E12">
@@ -10189,126 +9834,126 @@
       <c r="F12">
         <v>4.6859999999999999</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7">
         <f>AVERAGE(F12:Y12)</f>
         <v>4.6859999999999999</v>
       </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13">
         <v>16</v>
       </c>
       <c r="F13">
         <v>15.59</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
         <f t="shared" ref="Z13:Z15" si="0">AVERAGE(F13:Y13)</f>
         <v>15.59</v>
       </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14">
         <v>64</v>
       </c>
       <c r="F14">
         <v>60.411000000000001</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7">
         <f t="shared" si="0"/>
         <v>60.411000000000001</v>
       </c>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15">
         <v>256</v>
       </c>
       <c r="F15">
         <v>242.78100000000001</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7">
         <f t="shared" si="0"/>
         <v>242.78100000000001</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="22"/>
       <c r="D16" s="4"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
         <v>1024</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E17">
@@ -10317,43 +9962,43 @@
       <c r="F17">
         <v>12.592000000000001</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="7">
         <v>12.650447564319</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="7">
         <v>12.624502694347999</v>
       </c>
       <c r="I17">
         <v>12.613</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="7">
         <v>12.647748077929</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="7">
         <v>12.7146439334</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="7">
         <v>12.656531199045</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="7">
         <v>12.615971972438</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="7">
         <v>12.616419842403999</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="7">
         <v>12.620098927233</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="7">
         <v>12.685569792560999</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="7">
         <v>12.698793768679</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="7">
         <v>12.71767747725</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="7">
         <v>12.664260761058999</v>
       </c>
       <c r="T17">
@@ -10362,36 +10007,36 @@
       <c r="U17">
         <v>12.564</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="7">
         <v>12.705999613375999</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="7">
         <v>12.720890782692001</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="7">
         <v>12.705426817237999</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="7">
         <v>12.696792660689001</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="7">
         <f>AVERAGE(F17:Y17)</f>
         <v>12.661588794233001</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="6">
         <f>_xlfn.STDEV.P(F17:O17)</f>
         <v>3.2527260523393241E-2</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="6">
         <f>_xlfn.STDEV.P(P17:Y17)</f>
         <v>4.4517966073508115E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18">
         <v>16</v>
       </c>
@@ -10407,66 +10052,66 @@
       <c r="I18">
         <v>49.552999999999997</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="7">
         <v>50.547789003136998</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="7">
         <v>50.570895323967001</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="7">
         <v>49.598543162570998</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="7">
         <v>50.566192360289001</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="7">
         <v>50.049301561173998</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="7">
         <v>50.208320432279002</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="7">
         <v>49.678097343151997</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="7">
         <v>50.522462236701003</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="7">
         <v>49.635740709205997</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="7">
         <v>50.212758491989</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="7">
         <v>50.371794409141003</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="7">
         <v>49.903001133383</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="7">
         <v>50.300942390423003</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="7">
         <v>50.357332459115</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="7">
         <v>49.814596899827002</v>
       </c>
-      <c r="Y18" s="14">
+      <c r="Y18" s="7">
         <v>50.571850245802999</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z18" s="7">
         <f t="shared" ref="Z18:Z20" si="1">AVERAGE(F18:Y18)</f>
         <v>50.179980908107851</v>
       </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19">
         <v>64</v>
       </c>
@@ -10482,66 +10127,66 @@
       <c r="I19">
         <v>198.67</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="7">
         <v>200.02292356140001</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="7">
         <v>200.31389728708001</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="7">
         <v>200.23530415921999</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="7">
         <v>200.18193283613999</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="7">
         <v>199.11553749711999</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="7">
         <v>199.81433314419999</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="7">
         <v>201.39539362354</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="7">
         <v>198.8401181184</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="7">
         <v>199.06859605066001</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="7">
         <v>200.22087526941999</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="7">
         <v>201.14625675012999</v>
       </c>
-      <c r="U19" s="14">
+      <c r="U19" s="7">
         <v>200.33460264166001</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="7">
         <v>199.71587051991</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="7">
         <v>200.58255441822999</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="7">
         <v>200.80348575317001</v>
       </c>
-      <c r="Y19" s="14">
+      <c r="Y19" s="7">
         <v>200.57752363783999</v>
       </c>
-      <c r="Z19" s="14">
+      <c r="Z19" s="7">
         <f t="shared" si="1"/>
         <v>200.15376026340599</v>
       </c>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
       <c r="E20">
         <v>256</v>
       </c>
@@ -10557,83 +10202,83 @@
       <c r="I20">
         <v>796.40599999999995</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="7">
         <v>795.61370595860001</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="7">
         <v>798.77758577332997</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="7">
         <v>797.60890411202001</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="7">
         <v>800.94561514924999</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="7">
         <v>799.83727041818997</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="7">
         <v>801.20896242308004</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="7">
         <v>801.22345688027997</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="7">
         <v>800.71591485549004</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="7">
         <v>800.78846499226995</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="7">
         <v>793.99555414232998</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="7">
         <v>804.19078851485006</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="7">
         <v>798.45218483821998</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="7">
         <v>802.56363410406004</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="7">
         <v>802.28207382909</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="7">
         <v>794.06222544742002</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="7">
         <v>798.62542522051001</v>
       </c>
-      <c r="Z20" s="14">
+      <c r="Z20" s="7">
         <f t="shared" si="1"/>
         <v>799.3421383329495</v>
       </c>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="4"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E22">
@@ -10642,198 +10287,198 @@
       <c r="F22">
         <v>26.279</v>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7">
         <f>AVERAGE(F22:Y22)</f>
         <v>26.279</v>
       </c>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
       <c r="E23">
         <v>16</v>
       </c>
       <c r="F23">
         <v>99.918999999999997</v>
       </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7">
         <f t="shared" ref="Z23:Z25" si="2">AVERAGE(F23:Y23)</f>
         <v>99.918999999999997</v>
       </c>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
       <c r="E24">
         <v>64</v>
       </c>
       <c r="F24">
         <v>401.762</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7">
         <f t="shared" si="2"/>
         <v>401.762</v>
       </c>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
       <c r="E25">
         <v>256</v>
       </c>
       <c r="F25">
         <v>1569.08</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7">
         <f t="shared" si="2"/>
         <v>1569.08</v>
       </c>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
       <c r="D26" s="3"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7">
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="22">
         <v>14</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="22">
         <v>400</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14" t="e">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7" t="e">
         <f>AVERAGE(F27:Y27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
       <c r="E28">
         <v>16</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="Z28" s="14" t="e">
+      <c r="J28" s="5"/>
+      <c r="Z28" s="7" t="e">
         <f t="shared" ref="Z28:Z30" si="3">AVERAGE(F28:Y28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
       <c r="E29">
         <v>64</v>
       </c>
-      <c r="Z29" s="14" t="e">
+      <c r="Z29" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
       <c r="E30">
         <v>256</v>
       </c>
-      <c r="Z30" s="14" t="e">
+      <c r="Z30" s="7" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="4"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E32">
@@ -10843,18 +10488,18 @@
         <f>4952/1000</f>
         <v>4.952</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="Z32" s="7">
         <f>AVERAGE(F32:Y32)</f>
         <v>4.952</v>
       </c>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
       <c r="E33">
         <v>16</v>
       </c>
@@ -10862,18 +10507,18 @@
         <f>18127/1000</f>
         <v>18.126999999999999</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="Z33" s="7">
         <f>AVERAGE(F33:Y33)</f>
         <v>18.126999999999999</v>
       </c>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
       <c r="E34">
         <v>64</v>
       </c>
@@ -10881,18 +10526,18 @@
         <f>69437/1000</f>
         <v>69.436999999999998</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="7">
         <f>AVERAGE(F34:Y34)</f>
         <v>69.436999999999998</v>
       </c>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
       <c r="E35">
         <v>256</v>
       </c>
@@ -10900,108 +10545,108 @@
         <f>274378/1000</f>
         <v>274.37799999999999</v>
       </c>
-      <c r="Z35" s="14">
+      <c r="Z35" s="7">
         <f>AVERAGE(F35:Y35)</f>
         <v>274.37799999999999</v>
       </c>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="15"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="8"/>
       <c r="D36" s="4"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7">
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="22">
         <v>20</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="22">
         <v>400</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14" t="e">
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7" t="e">
         <f>AVERAGE(F37:Y37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
       <c r="E38">
         <v>16</v>
       </c>
-      <c r="Z38" s="14" t="e">
+      <c r="Z38" s="7" t="e">
         <f t="shared" ref="Z38:Z40" si="4">AVERAGE(F38:Y38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
       <c r="E39">
         <v>64</v>
       </c>
-      <c r="Z39" s="14" t="e">
+      <c r="Z39" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
       <c r="E40">
         <v>256</v>
       </c>
-      <c r="Z40" s="14" t="e">
+      <c r="Z40" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="4"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6" t="s">
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E42">
@@ -11011,18 +10656,18 @@
         <f>5482/1000</f>
         <v>5.4820000000000002</v>
       </c>
-      <c r="Z42" s="14">
+      <c r="Z42" s="7">
         <f>AVERAGE(F42:Y42)</f>
         <v>5.4820000000000002</v>
       </c>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
       <c r="E43">
         <v>16</v>
       </c>
@@ -11030,18 +10675,18 @@
         <f>20167/1000</f>
         <v>20.167000000000002</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="Z43" s="7">
         <f>AVERAGE(F43:Y43)</f>
         <v>20.167000000000002</v>
       </c>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
       <c r="E44">
         <v>64</v>
       </c>
@@ -11049,18 +10694,18 @@
         <f>77359/1000</f>
         <v>77.358999999999995</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="Z44" s="7">
         <f>AVERAGE(F44:Y44)</f>
         <v>77.358999999999995</v>
       </c>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
       <c r="E45">
         <v>256</v>
       </c>
@@ -11068,781 +10713,781 @@
         <f>304055/1000</f>
         <v>304.05500000000001</v>
       </c>
-      <c r="Z45" s="14">
+      <c r="Z45" s="7">
         <f>AVERAGE(F45:Y45)</f>
         <v>304.05500000000001</v>
       </c>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="22">
         <v>9</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="22">
         <v>400</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="14" t="e">
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7" t="e">
         <f>AVERAGE(F47:Y47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
       <c r="E48">
         <v>16</v>
       </c>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14" t="e">
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7" t="e">
         <f>AVERAGE(F48:Y48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
       <c r="E49">
         <v>64</v>
       </c>
-      <c r="W49" s="14"/>
-      <c r="Z49" s="14" t="e">
+      <c r="W49" s="7"/>
+      <c r="Z49" s="7" t="e">
         <f>AVERAGE(F49:Y49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
       <c r="E50">
         <v>256</v>
       </c>
-      <c r="W50" s="14"/>
-      <c r="Z50" s="14" t="e">
+      <c r="W50" s="7"/>
+      <c r="Z50" s="7" t="e">
         <f>AVERAGE(F50:Y50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="4"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6" t="s">
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="14" t="e">
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7" t="e">
         <f>AVERAGE(F52:Y52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
       <c r="E53">
         <v>16</v>
       </c>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14" t="e">
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7" t="e">
         <f t="shared" ref="Z53:Z55" si="5">AVERAGE(F53:Y53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
       <c r="E54">
         <v>64</v>
       </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14" t="e">
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
       <c r="E55">
         <v>256</v>
       </c>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14" t="e">
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="7"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="22"/>
       <c r="D56" s="4"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7">
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22">
         <v>1024</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14" t="e">
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7" t="e">
         <f>AVERAGE(F57:Y57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
       <c r="E58">
         <v>16</v>
       </c>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
-      <c r="Z58" s="14" t="e">
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7" t="e">
         <f t="shared" ref="Z58:Z60" si="6">AVERAGE(F58:Y58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
       <c r="E59">
         <v>64</v>
       </c>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14" t="e">
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
       <c r="E60">
         <v>256</v>
       </c>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14" t="e">
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="4"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6" t="s">
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E62">
         <v>4</v>
       </c>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14" t="e">
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7" t="e">
         <f>AVERAGE(F62:Y62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A63" s="27"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
       <c r="E63">
         <v>16</v>
       </c>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14" t="e">
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7" t="e">
         <f t="shared" ref="Z63:Z65" si="7">AVERAGE(F63:Y63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
       <c r="E64">
         <v>64</v>
       </c>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14" t="e">
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
       <c r="E65">
         <v>256</v>
       </c>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="14"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="14" t="e">
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
       <c r="D66" s="3"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="7">
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="22">
         <v>14</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="22">
         <v>400</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E67">
         <v>4</v>
       </c>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14" t="e">
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7" t="e">
         <f>AVERAGE(F67:Y67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
       <c r="E68">
         <v>16</v>
       </c>
-      <c r="J68" s="12"/>
-      <c r="Z68" s="14" t="e">
+      <c r="J68" s="5"/>
+      <c r="Z68" s="7" t="e">
         <f t="shared" ref="Z68:Z70" si="8">AVERAGE(F68:Y68)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
       <c r="E69">
         <v>64</v>
       </c>
-      <c r="Z69" s="14" t="e">
+      <c r="Z69" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A70" s="27"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
       <c r="E70">
         <v>256</v>
       </c>
-      <c r="Z70" s="14" t="e">
+      <c r="Z70" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A71" s="27"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="4"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6" t="s">
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A72" s="27"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E72">
         <v>4</v>
       </c>
-      <c r="Z72" s="14" t="e">
+      <c r="Z72" s="7" t="e">
         <f>AVERAGE(F72:Y72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
       <c r="E73">
         <v>16</v>
       </c>
-      <c r="Z73" s="14" t="e">
+      <c r="Z73" s="7" t="e">
         <f>AVERAGE(F73:Y73)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" s="27"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
       <c r="E74">
         <v>64</v>
       </c>
-      <c r="Z74" s="14" t="e">
+      <c r="Z74" s="7" t="e">
         <f>AVERAGE(F74:Y74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" s="27"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
       <c r="E75">
         <v>256</v>
       </c>
-      <c r="Z75" s="14" t="e">
+      <c r="Z75" s="7" t="e">
         <f>AVERAGE(F75:Y75)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="13"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="15"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A76" s="27"/>
+      <c r="B76" s="8"/>
       <c r="D76" s="4"/>
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="13"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="7">
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A77" s="27"/>
+      <c r="B77" s="22">
         <v>20</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="22">
         <v>400</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="14"/>
-      <c r="W77" s="14"/>
-      <c r="X77" s="14"/>
-      <c r="Y77" s="14"/>
-      <c r="Z77" s="14" t="e">
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7" t="e">
         <f>AVERAGE(F77:Y77)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A78" s="27"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
       <c r="E78">
         <v>16</v>
       </c>
-      <c r="Z78" s="14" t="e">
+      <c r="Z78" s="7" t="e">
         <f t="shared" ref="Z78:Z80" si="9">AVERAGE(F78:Y78)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" s="27"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
       <c r="E79">
         <v>64</v>
       </c>
-      <c r="Z79" s="14" t="e">
+      <c r="Z79" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" s="27"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
       <c r="E80">
         <v>256</v>
       </c>
-      <c r="Z80" s="14" t="e">
+      <c r="Z80" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="13"/>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A81" s="27"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="4"/>
-      <c r="AA81" s="13"/>
-      <c r="AB81" s="13"/>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6" t="s">
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A82" s="27"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E82">
         <v>4</v>
       </c>
-      <c r="Z82" s="14" t="e">
+      <c r="Z82" s="7" t="e">
         <f>AVERAGE(F82:Y82)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="13"/>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
       <c r="E83">
         <v>16</v>
       </c>
-      <c r="Z83" s="14" t="e">
+      <c r="Z83" s="7" t="e">
         <f>AVERAGE(F83:Y83)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="13"/>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" s="27"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
       <c r="E84">
         <v>64</v>
       </c>
-      <c r="Z84" s="14" t="e">
+      <c r="Z84" s="7" t="e">
         <f>AVERAGE(F84:Y84)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="13"/>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
       <c r="E85">
         <v>256</v>
       </c>
-      <c r="Z85" s="14" t="e">
+      <c r="Z85" s="7" t="e">
         <f>AVERAGE(F85:Y85)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA85" s="13"/>
-      <c r="AB85" s="13"/>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="AA86" s="13"/>
-      <c r="AB86" s="13"/>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A87" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="22">
         <v>9</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="22">
         <v>400</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E87">
@@ -11878,54 +11523,54 @@
       <c r="O87">
         <v>0.58499999999999996</v>
       </c>
-      <c r="P87" s="14">
+      <c r="P87" s="7">
         <v>0.62092290481362999</v>
       </c>
-      <c r="Q87" s="14">
+      <c r="Q87" s="7">
         <v>0.62002337103478</v>
       </c>
-      <c r="R87" s="14">
+      <c r="R87" s="7">
         <v>0.59667269699352998</v>
       </c>
-      <c r="S87" s="14">
+      <c r="S87" s="7">
         <v>0.5923813594167</v>
       </c>
-      <c r="T87" s="14">
+      <c r="T87" s="7">
         <v>0.58752293672064004</v>
       </c>
-      <c r="U87" s="14">
+      <c r="U87" s="7">
         <v>0.66868850213647002</v>
       </c>
-      <c r="V87" s="14">
+      <c r="V87" s="7">
         <v>0.58674910261377</v>
       </c>
-      <c r="W87" s="14">
+      <c r="W87" s="7">
         <v>0.66388382445503002</v>
       </c>
-      <c r="X87" s="14">
+      <c r="X87" s="7">
         <v>0.66937908956985004</v>
       </c>
-      <c r="Y87" s="14">
+      <c r="Y87" s="7">
         <v>0.60028826495878995</v>
       </c>
-      <c r="Z87" s="14">
+      <c r="Z87" s="7">
         <f>AVERAGE(F87:Y87)</f>
         <v>0.61852560263565948</v>
       </c>
-      <c r="AA87" s="13">
+      <c r="AA87" s="6">
         <f>_xlfn.STDEV.P(F87:O87)</f>
         <v>3.4601156050051284E-2</v>
       </c>
-      <c r="AB87" s="13">
+      <c r="AB87" s="6">
         <f>_xlfn.STDEV.P(P87:Y87)</f>
         <v>3.2537905710244702E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="6"/>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="23"/>
       <c r="E88">
         <v>16</v>
       </c>
@@ -11959,48 +11604,48 @@
       <c r="O88">
         <v>2.2650000000000001</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P88" s="7">
         <v>2.2801380997324001</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q88" s="7">
         <v>2.3387215133689998</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R88" s="7">
         <v>2.3677229691263002</v>
       </c>
-      <c r="S88" s="14">
+      <c r="S88" s="7">
         <v>2.3601430536215999</v>
       </c>
-      <c r="T88" s="14">
+      <c r="T88" s="7">
         <v>2.2986644507943002</v>
       </c>
-      <c r="U88" s="14">
+      <c r="U88" s="7">
         <v>2.2874872151010002</v>
       </c>
-      <c r="V88" s="14">
+      <c r="V88" s="7">
         <v>2.3731575958095998</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W88" s="7">
         <v>2.2757707524583002</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X88" s="7">
         <v>2.3139331495244999</v>
       </c>
-      <c r="Y88" s="14">
+      <c r="Y88" s="7">
         <v>2.3033128912199001</v>
       </c>
-      <c r="Z88" s="14">
+      <c r="Z88" s="7">
         <f>AVERAGE(F88:Y88)</f>
         <v>2.3187025845378453</v>
       </c>
-      <c r="AA88" s="13"/>
-      <c r="AB88" s="13"/>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" s="27"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23"/>
       <c r="E89">
         <v>64</v>
       </c>
@@ -12034,48 +11679,48 @@
       <c r="O89">
         <v>9.0749999999999993</v>
       </c>
-      <c r="P89" s="14">
+      <c r="P89" s="7">
         <v>9.2179207231425</v>
       </c>
-      <c r="Q89" s="14">
+      <c r="Q89" s="7">
         <v>9.0119029604685004</v>
       </c>
-      <c r="R89" s="14">
+      <c r="R89" s="7">
         <v>9.0714280610584996</v>
       </c>
-      <c r="S89" s="14">
+      <c r="S89" s="7">
         <v>8.9818927763666991</v>
       </c>
-      <c r="T89" s="14">
+      <c r="T89" s="7">
         <v>8.9831218279860998</v>
       </c>
-      <c r="U89" s="14">
+      <c r="U89" s="7">
         <v>9.1700120609426001</v>
       </c>
-      <c r="V89" s="14">
+      <c r="V89" s="7">
         <v>9.0218564642225001</v>
       </c>
-      <c r="W89" s="14">
+      <c r="W89" s="7">
         <v>9.0552573175227007</v>
       </c>
-      <c r="X89" s="14">
+      <c r="X89" s="7">
         <v>9.0456295161864997</v>
       </c>
-      <c r="Y89" s="14">
+      <c r="Y89" s="7">
         <v>9.1093151007301003</v>
       </c>
-      <c r="Z89" s="14">
+      <c r="Z89" s="7">
         <f>AVERAGE(F89:Y89)</f>
         <v>9.0785168404313357</v>
       </c>
-      <c r="AA89" s="13"/>
-      <c r="AB89" s="13"/>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
       <c r="E90">
         <v>256</v>
       </c>
@@ -12109,187 +11754,187 @@
       <c r="O90">
         <v>36.148000000000003</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P90" s="7">
         <v>36.037288465004004</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q90" s="7">
         <v>36.186345955047997</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R90" s="7">
         <v>36.324341798859002</v>
       </c>
-      <c r="S90" s="14">
+      <c r="S90" s="7">
         <v>36.548531856322001</v>
       </c>
-      <c r="T90" s="14">
+      <c r="T90" s="7">
         <v>36.535033371631997</v>
       </c>
-      <c r="U90" s="14">
+      <c r="U90" s="7">
         <v>36.377357840351998</v>
       </c>
-      <c r="V90" s="14">
+      <c r="V90" s="7">
         <v>36.149523874331997</v>
       </c>
-      <c r="W90" s="14">
+      <c r="W90" s="7">
         <v>36.052557412741002</v>
       </c>
-      <c r="X90" s="14">
+      <c r="X90" s="7">
         <v>36.593299187703003</v>
       </c>
-      <c r="Y90" s="14">
+      <c r="Y90" s="7">
         <v>36.376352542241001</v>
       </c>
-      <c r="Z90" s="14">
+      <c r="Z90" s="7">
         <f>AVERAGE(F90:Y90)</f>
         <v>36.259781615211701</v>
       </c>
-      <c r="AA90" s="13"/>
-      <c r="AB90" s="13"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="4"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="13"/>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="6" t="s">
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E92">
         <v>4</v>
       </c>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="14"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="14"/>
-      <c r="Y92" s="14"/>
-      <c r="Z92" s="14" t="e">
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7" t="e">
         <f>AVERAGE(F92:Y92)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="13"/>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
       <c r="E93">
         <v>16</v>
       </c>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="14"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="14"/>
-      <c r="Z93" s="14" t="e">
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7" t="e">
         <f t="shared" ref="Z93:Z95" si="10">AVERAGE(F93:Y93)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA93" s="13"/>
-      <c r="AB93" s="13"/>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A94" s="27"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="23"/>
       <c r="E94">
         <v>64</v>
       </c>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="14"/>
-      <c r="Y94" s="14"/>
-      <c r="Z94" s="14" t="e">
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA94" s="13"/>
-      <c r="AB94" s="13"/>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A95" s="27"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="23"/>
       <c r="E95">
         <v>256</v>
       </c>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="14"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="14"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="14"/>
-      <c r="Y95" s="14"/>
-      <c r="Z95" s="14" t="e">
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA95" s="13"/>
-      <c r="AB95" s="13"/>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="7"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A96" s="27"/>
+      <c r="B96" s="22"/>
       <c r="D96" s="4"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="14"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="14"/>
-      <c r="AA96" s="13"/>
-      <c r="AB96" s="13"/>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7">
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22">
         <v>1024</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E97">
@@ -12325,54 +11970,54 @@
       <c r="O97">
         <v>3.7010000000000001</v>
       </c>
-      <c r="P97" s="14">
+      <c r="P97" s="7">
         <v>3.7306711650955</v>
       </c>
-      <c r="Q97" s="14">
+      <c r="Q97" s="7">
         <v>3.8654451530298002</v>
       </c>
-      <c r="R97" s="14">
+      <c r="R97" s="7">
         <v>3.8346527690587999</v>
       </c>
-      <c r="S97" s="14">
+      <c r="S97" s="7">
         <v>3.8532532049810002</v>
       </c>
-      <c r="T97" s="14">
+      <c r="T97" s="7">
         <v>3.7101004512920999</v>
       </c>
-      <c r="U97" s="14">
+      <c r="U97" s="7">
         <v>3.9165891772339001</v>
       </c>
-      <c r="V97" s="14">
+      <c r="V97" s="7">
         <v>3.9006674956146998</v>
       </c>
-      <c r="W97" s="14">
+      <c r="W97" s="7">
         <v>3.7617341092222998</v>
       </c>
-      <c r="X97" s="14">
+      <c r="X97" s="7">
         <v>3.8930916994252001</v>
       </c>
-      <c r="Y97" s="14">
+      <c r="Y97" s="7">
         <v>3.7900060825920998</v>
       </c>
-      <c r="Z97" s="14">
+      <c r="Z97" s="7">
         <f>AVERAGE(F97:Y97)</f>
         <v>3.8063105653772702</v>
       </c>
-      <c r="AA97" s="13">
+      <c r="AA97" s="6">
         <f>_xlfn.STDEV.P(F97:O97)</f>
         <v>7.0423007604049417E-2</v>
       </c>
-      <c r="AB97" s="13">
+      <c r="AB97" s="6">
         <f>_xlfn.STDEV.P(P97:Y97)</f>
         <v>6.9714404035625288E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="6"/>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" s="27"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23"/>
       <c r="E98">
         <v>16</v>
       </c>
@@ -12406,48 +12051,48 @@
       <c r="O98">
         <v>14.726000000000001</v>
       </c>
-      <c r="P98" s="14">
+      <c r="P98" s="7">
         <v>14.897601218827001</v>
       </c>
-      <c r="Q98" s="14">
+      <c r="Q98" s="7">
         <v>15.000464352696</v>
       </c>
-      <c r="R98" s="14">
+      <c r="R98" s="7">
         <v>14.82514456054</v>
       </c>
-      <c r="S98" s="14">
+      <c r="S98" s="7">
         <v>14.869834068418999</v>
       </c>
-      <c r="T98" s="14">
+      <c r="T98" s="7">
         <v>14.827465456099</v>
       </c>
-      <c r="U98" s="14">
+      <c r="U98" s="7">
         <v>14.96089867918</v>
       </c>
-      <c r="V98" s="14">
+      <c r="V98" s="7">
         <v>14.904338620724999</v>
       </c>
-      <c r="W98" s="14">
+      <c r="W98" s="7">
         <v>15.00249620956</v>
       </c>
-      <c r="X98" s="14">
+      <c r="X98" s="7">
         <v>14.842054896351</v>
       </c>
-      <c r="Y98" s="14">
+      <c r="Y98" s="7">
         <v>14.885315948318</v>
       </c>
-      <c r="Z98" s="14">
+      <c r="Z98" s="7">
         <f t="shared" ref="Z98:Z100" si="11">AVERAGE(F98:Y98)</f>
         <v>14.899680700535749</v>
       </c>
-      <c r="AA98" s="13"/>
-      <c r="AB98" s="13"/>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" s="27"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="23"/>
       <c r="E99">
         <v>64</v>
       </c>
@@ -12481,48 +12126,48 @@
       <c r="O99">
         <v>58.918999999999997</v>
       </c>
-      <c r="P99" s="14">
+      <c r="P99" s="7">
         <v>59.328347408302001</v>
       </c>
-      <c r="Q99" s="14">
+      <c r="Q99" s="7">
         <v>60.074475468338001</v>
       </c>
-      <c r="R99" s="14">
+      <c r="R99" s="7">
         <v>59.470741927650998</v>
       </c>
-      <c r="S99" s="14">
+      <c r="S99" s="7">
         <v>60.066334732116999</v>
       </c>
-      <c r="T99" s="14">
+      <c r="T99" s="7">
         <v>59.427133723799002</v>
       </c>
-      <c r="U99" s="14">
+      <c r="U99" s="7">
         <v>59.028250393450001</v>
       </c>
-      <c r="V99" s="14">
+      <c r="V99" s="7">
         <v>58.950350317667997</v>
       </c>
-      <c r="W99" s="14">
+      <c r="W99" s="7">
         <v>59.008112650332997</v>
       </c>
-      <c r="X99" s="14">
+      <c r="X99" s="7">
         <v>59.707293433487997</v>
       </c>
-      <c r="Y99" s="14">
+      <c r="Y99" s="7">
         <v>59.015297245622001</v>
       </c>
-      <c r="Z99" s="14">
+      <c r="Z99" s="7">
         <f t="shared" si="11"/>
         <v>59.425016865038401</v>
       </c>
-      <c r="AA99" s="13"/>
-      <c r="AB99" s="13"/>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A100" s="27"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="23"/>
       <c r="E100">
         <v>256</v>
       </c>
@@ -12556,496 +12201,476 @@
       <c r="O100">
         <v>236.60499999999999</v>
       </c>
-      <c r="P100" s="14">
+      <c r="P100" s="7">
         <v>237.25873898021999</v>
       </c>
-      <c r="Q100" s="14">
+      <c r="Q100" s="7">
         <v>238.85242697974999</v>
       </c>
-      <c r="R100" s="14">
+      <c r="R100" s="7">
         <v>238.85974804386001</v>
       </c>
-      <c r="S100" s="14">
+      <c r="S100" s="7">
         <v>238.00289602542</v>
       </c>
-      <c r="T100" s="14">
+      <c r="T100" s="7">
         <v>238.17257927106999</v>
       </c>
-      <c r="U100" s="14">
+      <c r="U100" s="7">
         <v>237.86365751732001</v>
       </c>
-      <c r="V100" s="14">
+      <c r="V100" s="7">
         <v>237.06182883564</v>
       </c>
-      <c r="W100" s="14">
+      <c r="W100" s="7">
         <v>238.26161719589001</v>
       </c>
-      <c r="X100" s="14">
+      <c r="X100" s="7">
         <v>236.73563705805</v>
       </c>
-      <c r="Y100" s="14">
+      <c r="Y100" s="7">
         <v>238.58430696921999</v>
       </c>
-      <c r="Z100" s="14">
+      <c r="Z100" s="7">
         <f t="shared" si="11"/>
         <v>238.02042184382199</v>
       </c>
-      <c r="AA100" s="13"/>
-      <c r="AB100" s="13"/>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101" s="27"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="4"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="14"/>
-      <c r="AA101" s="13"/>
-      <c r="AB101" s="13"/>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="6" t="s">
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E102">
         <v>4</v>
       </c>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
-      <c r="R102" s="14"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="14"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="14"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="14"/>
-      <c r="Y102" s="14"/>
-      <c r="Z102" s="14" t="e">
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7" t="e">
         <f>AVERAGE(F102:Y102)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA102" s="13"/>
-      <c r="AB102" s="13"/>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A103" s="27"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="23"/>
       <c r="E103">
         <v>16</v>
       </c>
-      <c r="Q103" s="14"/>
-      <c r="R103" s="14"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="14"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="14"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="14"/>
-      <c r="Y103" s="14"/>
-      <c r="Z103" s="14" t="e">
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7" t="e">
         <f t="shared" ref="Z103:Z105" si="12">AVERAGE(F103:Y103)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA103" s="13"/>
-      <c r="AB103" s="13"/>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A104" s="27"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="23"/>
       <c r="E104">
         <v>64</v>
       </c>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="14"/>
-      <c r="Z104" s="14" t="e">
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA104" s="13"/>
-      <c r="AB104" s="13"/>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A105" s="27"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="23"/>
       <c r="E105">
         <v>256</v>
       </c>
-      <c r="Q105" s="14"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="14"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="14"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="14"/>
-      <c r="Y105" s="14"/>
-      <c r="Z105" s="14" t="e">
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="13"/>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A106" s="27"/>
       <c r="D106" s="3"/>
-      <c r="AA106" s="13"/>
-      <c r="AB106" s="13"/>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="7">
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A107" s="27"/>
+      <c r="B107" s="22">
         <v>14</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="22">
         <v>400</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E107">
         <v>4</v>
       </c>
-      <c r="Q107" s="14"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="14"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="14"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="14"/>
-      <c r="Y107" s="14"/>
-      <c r="Z107" s="14" t="e">
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7" t="e">
         <f>AVERAGE(F107:Y107)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="6"/>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="23"/>
       <c r="E108">
         <v>16</v>
       </c>
-      <c r="J108" s="12"/>
-      <c r="Z108" s="14" t="e">
+      <c r="J108" s="5"/>
+      <c r="Z108" s="7" t="e">
         <f t="shared" ref="Z108:Z110" si="13">AVERAGE(F108:Y108)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA108" s="13"/>
-      <c r="AB108" s="13"/>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A109" s="27"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="23"/>
       <c r="E109">
         <v>64</v>
       </c>
-      <c r="Z109" s="14" t="e">
+      <c r="Z109" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA109" s="13"/>
-      <c r="AB109" s="13"/>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A110" s="27"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="23"/>
       <c r="E110">
         <v>256</v>
       </c>
-      <c r="Z110" s="14" t="e">
+      <c r="Z110" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA110" s="13"/>
-      <c r="AB110" s="13"/>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A111" s="27"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="4"/>
-      <c r="AA111" s="13"/>
-      <c r="AB111" s="13"/>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="6" t="s">
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E112">
         <v>4</v>
       </c>
-      <c r="Z112" s="14" t="e">
+      <c r="Z112" s="7" t="e">
         <f>AVERAGE(F112:Y112)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA112" s="13"/>
-      <c r="AB112" s="13"/>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A113" s="27"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="23"/>
       <c r="E113">
         <v>16</v>
       </c>
-      <c r="Z113" s="14" t="e">
+      <c r="Z113" s="7" t="e">
         <f>AVERAGE(F113:Y113)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA113" s="13"/>
-      <c r="AB113" s="13"/>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A114" s="27"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="23"/>
       <c r="E114">
         <v>64</v>
       </c>
-      <c r="Z114" s="14" t="e">
+      <c r="Z114" s="7" t="e">
         <f>AVERAGE(F114:Y114)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA114" s="13"/>
-      <c r="AB114" s="13"/>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A115" s="27"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="23"/>
       <c r="E115">
         <v>256</v>
       </c>
-      <c r="Z115" s="14" t="e">
+      <c r="Z115" s="7" t="e">
         <f>AVERAGE(F115:Y115)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA115" s="13"/>
-      <c r="AB115" s="13"/>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="15"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A116" s="27"/>
+      <c r="B116" s="8"/>
       <c r="D116" s="4"/>
-      <c r="AA116" s="13"/>
-      <c r="AB116" s="13"/>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="7">
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="6"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A117" s="27"/>
+      <c r="B117" s="22">
         <v>20</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="22">
         <v>400</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E117">
         <v>4</v>
       </c>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
-      <c r="T117" s="14"/>
-      <c r="U117" s="14"/>
-      <c r="V117" s="14"/>
-      <c r="W117" s="14"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="14"/>
-      <c r="Z117" s="14" t="e">
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="7" t="e">
         <f>AVERAGE(F117:Y117)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA117" s="13"/>
-      <c r="AB117" s="13"/>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="6"/>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A118" s="27"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="23"/>
       <c r="E118">
         <v>16</v>
       </c>
-      <c r="Z118" s="14" t="e">
+      <c r="Z118" s="7" t="e">
         <f t="shared" ref="Z118:Z120" si="14">AVERAGE(F118:Y118)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA118" s="13"/>
-      <c r="AB118" s="13"/>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="6"/>
+      <c r="AA118" s="6"/>
+      <c r="AB118" s="6"/>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A119" s="27"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="23"/>
       <c r="E119">
         <v>64</v>
       </c>
-      <c r="Z119" s="14" t="e">
+      <c r="Z119" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA119" s="13"/>
-      <c r="AB119" s="13"/>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="6"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A120" s="27"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="23"/>
       <c r="E120">
         <v>256</v>
       </c>
-      <c r="Z120" s="14" t="e">
+      <c r="Z120" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA120" s="13"/>
-      <c r="AB120" s="13"/>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+      <c r="AA120" s="6"/>
+      <c r="AB120" s="6"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A121" s="27"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
       <c r="D121" s="4"/>
-      <c r="AA121" s="13"/>
-      <c r="AB121" s="13"/>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="6" t="s">
+      <c r="AA121" s="6"/>
+      <c r="AB121" s="6"/>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A122" s="27"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E122">
         <v>4</v>
       </c>
-      <c r="Z122" s="14" t="e">
+      <c r="Z122" s="7" t="e">
         <f>AVERAGE(F122:Y122)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA122" s="13"/>
-      <c r="AB122" s="13"/>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
+      <c r="AA122" s="6"/>
+      <c r="AB122" s="6"/>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A123" s="27"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="23"/>
       <c r="E123">
         <v>16</v>
       </c>
-      <c r="Z123" s="14" t="e">
+      <c r="Z123" s="7" t="e">
         <f>AVERAGE(F123:Y123)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA123" s="13"/>
-      <c r="AB123" s="13"/>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
+      <c r="AA123" s="6"/>
+      <c r="AB123" s="6"/>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A124" s="27"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="23"/>
       <c r="E124">
         <v>64</v>
       </c>
-      <c r="Z124" s="14" t="e">
+      <c r="Z124" s="7" t="e">
         <f>AVERAGE(F124:Y124)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA124" s="13"/>
-      <c r="AB124" s="13"/>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="6"/>
+      <c r="AA124" s="6"/>
+      <c r="AB124" s="6"/>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A125" s="27"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="23"/>
       <c r="E125">
         <v>256</v>
       </c>
-      <c r="Z125" s="14" t="e">
+      <c r="Z125" s="7" t="e">
         <f>AVERAGE(F125:Y125)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA125" s="13"/>
-      <c r="AB125" s="13"/>
+      <c r="AA125" s="6"/>
+      <c r="AB125" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B107:B115"/>
-    <mergeCell ref="C107:C115"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="B117:B125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="B87:B105"/>
-    <mergeCell ref="C87:C95"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="C27:C35"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B47:B65"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="A87:A125"/>
+    <mergeCell ref="A47:A85"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D82:D85"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="C17:C25"/>
     <mergeCell ref="D17:D20"/>
@@ -13056,16 +12681,36 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="C7:C15"/>
     <mergeCell ref="F5:AC5"/>
-    <mergeCell ref="A47:A85"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="A87:A125"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="B47:B65"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B87:B105"/>
+    <mergeCell ref="C87:C95"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="B107:B115"/>
+    <mergeCell ref="C107:C115"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="D122:D125"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:Z6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -13079,893 +12724,893 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A50:U104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T79" sqref="T79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O50" s="15"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="20"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="23"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="23"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="23"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="23"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="23"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="23"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="23"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="23"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="23"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="23"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="23"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="23"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="23"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="23"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="23"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="23"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="23"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="23"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="23"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="23"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="23"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="23"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="22" t="s">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="13"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="16"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="16"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="16"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="16"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="16"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="16"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="16"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="16"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="16"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="16"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="16"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="16"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="16"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="16"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="16"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="16"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P69" s="22" t="s">
+      <c r="P69" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="24" t="s">
+      <c r="Q69" s="15"/>
+      <c r="R69" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="23"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22" t="s">
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="16"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="24" t="s">
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="23"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="30">
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="16"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="21">
         <v>400</v>
       </c>
-      <c r="P70" s="25">
+      <c r="P70" s="17">
         <v>1.9096693816795554</v>
       </c>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="26">
+      <c r="Q70" s="15"/>
+      <c r="R70" s="30">
         <f>CORREL(O70:O71,P70:P71)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="23"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22">
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="16"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15">
         <v>4</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="25">
+      <c r="C71" s="15"/>
+      <c r="D71" s="17">
         <v>1.9096693816795554</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="26">
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="30">
         <f>CORREL(B71:B74,D71:D74)</f>
         <v>0.99999945824928782</v>
       </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="23"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="30">
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="16"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="21">
         <v>1024</v>
       </c>
-      <c r="P71" s="22">
+      <c r="P71" s="15">
         <v>13.592000000000001</v>
       </c>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
-      <c r="U71" s="23"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22">
+      <c r="Q71" s="15"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="16"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15">
         <v>16</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="25">
+      <c r="C72" s="15"/>
+      <c r="D72" s="17">
         <v>7.5214495213833557</v>
       </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="23"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="23"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22">
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="16"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="16"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15">
         <v>64</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="25">
+      <c r="C73" s="15"/>
+      <c r="D73" s="17">
         <v>30.100779820964995</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="23"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="23"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22">
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="16"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15">
         <v>256</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="25">
+      <c r="C74" s="15"/>
+      <c r="D74" s="17">
         <v>120.84662767098048</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="23"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="23"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="23"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="23"/>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="29"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="29"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O77" s="15"/>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="23"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="23"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="23"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="23"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="23"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="23"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="23"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="23"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="23"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="23"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="23"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="23"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="23"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="23"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="23"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="23"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="23"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22" t="s">
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="16"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="16"/>
+    </row>
+    <row r="76" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="20"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O77" s="8"/>
+    </row>
+    <row r="79" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="24" t="s">
+      <c r="C98" s="15"/>
+      <c r="D98" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="24" t="s">
+      <c r="E98" s="29"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="23"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22">
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15">
         <v>9</v>
       </c>
-      <c r="C99" s="22"/>
+      <c r="C99" s="15"/>
       <c r="D99">
         <v>4.6859999999999999</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="26">
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="30">
         <f>CORREL(B99:B102,D99:D102)</f>
         <v>0.99066365135604784</v>
       </c>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="23"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22">
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15">
         <v>14</v>
       </c>
-      <c r="C100" s="22"/>
+      <c r="C100" s="15"/>
       <c r="D100">
         <f>4952/1000</f>
         <v>4.952</v>
       </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="23"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22">
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15">
         <v>20</v>
       </c>
-      <c r="C101" s="22"/>
+      <c r="C101" s="15"/>
       <c r="D101">
         <f>5482/1000</f>
         <v>5.4820000000000002</v>
       </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="23"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="23"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="23"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="29"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+    </row>
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13983,12 +13628,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AllResults_Table.xlsx
+++ b/AllResults_Table.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40182166\Documents\GitHub\CPS-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Università\Year 4\Concurrent of Parrallel Systems\Coursework1\CPS-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Table Of Results" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
     <sheet name="Quick results comparison" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Complete Table Of Results'!$D$28:$E$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -131,10 +128,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -896,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -907,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -917,24 +914,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -942,70 +921,34 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="23" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="24" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="25" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="24" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="24" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="25" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="12" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,12 +956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,50 +976,110 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="24" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="25" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="24" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="25" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="23" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="24" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="25" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1131,7 +1128,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1168,7 +1165,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1194,7 +1190,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1269,9 +1265,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1293,9 +1287,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1317,9 +1309,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1341,9 +1331,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1419,7 +1407,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1554,9 +1542,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1578,9 +1564,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6114-49A5-8B80-9AD8F948F704}"/>
                 </c:ext>
@@ -1602,9 +1586,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-5F1E-4F5B-B923-6CE6D35EB17A}"/>
                 </c:ext>
@@ -1626,9 +1608,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-6114-49A5-8B80-9AD8F948F704}"/>
                 </c:ext>
@@ -1660,7 +1640,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1673,7 +1653,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1803,7 +1782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1829,7 +1807,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1867,7 +1845,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786440"/>
@@ -1923,7 +1901,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1949,7 +1926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1987,7 +1964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786112"/>
@@ -2005,7 +1982,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2034,7 +2010,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2064,7 +2040,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2078,7 +2054,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2122,7 +2098,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2148,7 +2123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2223,9 +2198,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2247,9 +2220,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2271,9 +2242,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2295,9 +2264,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2373,7 +2340,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2508,9 +2475,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2532,9 +2497,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2556,9 +2519,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F18A-4DA7-AB26-6902648D13BD}"/>
                 </c:ext>
@@ -2580,9 +2541,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-FD64-4C7D-A042-1D2321B60E3F}"/>
                 </c:ext>
@@ -2614,7 +2573,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2627,7 +2586,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2757,7 +2715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2783,7 +2740,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2821,7 +2778,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786440"/>
@@ -2877,7 +2834,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2903,7 +2859,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2941,7 +2897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786112"/>
@@ -2960,7 +2916,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2989,7 +2944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3019,7 +2974,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3033,7 +2988,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3075,7 +3030,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3101,7 +3055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3166,7 +3120,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3179,7 +3133,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3324,7 +3277,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3350,7 +3302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3388,7 +3340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510678392"/>
@@ -3447,7 +3399,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3473,7 +3424,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3511,7 +3462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510674456"/>
@@ -3552,7 +3503,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3566,7 +3517,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3608,7 +3559,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3634,7 +3584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3794,7 +3744,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3820,7 +3769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3858,7 +3807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="431197480"/>
@@ -3913,7 +3862,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3939,7 +3887,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3977,7 +3925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="435004488"/>
@@ -4018,7 +3966,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4032,7 +3980,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4109,7 +4057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4184,9 +4132,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4208,9 +4154,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4232,9 +4176,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4256,9 +4198,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4334,7 +4274,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4469,9 +4409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4493,9 +4431,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4517,9 +4453,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4541,9 +4475,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4597,7 +4529,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4732,9 +4664,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4756,9 +4686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4780,9 +4708,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4804,9 +4730,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-C613-4EF7-854D-256A989DF85D}"/>
                 </c:ext>
@@ -4860,7 +4784,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5034,7 +4958,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5072,7 +4996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786440"/>
@@ -5129,7 +5053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5155,7 +5078,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5193,7 +5116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443786112"/>
@@ -5211,7 +5134,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5237,7 +5159,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5267,7 +5189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5281,7 +5203,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5323,7 +5245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5349,7 +5270,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5414,7 +5335,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5427,7 +5348,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5578,7 +5498,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5604,7 +5523,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5642,7 +5561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510678392"/>
@@ -5696,7 +5615,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5722,7 +5640,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5760,7 +5678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="510674456"/>
@@ -5801,7 +5719,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9376,45 +9294,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="initial_result"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="A10">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>256</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1024</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9679,137 +9558,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="26"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="20"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="11" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="11" width="9.88671875" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="25" t="s">
+    <row r="5" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+    </row>
+    <row r="6" spans="1:18" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="56" t="s">
+      <c r="Q6" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="63">
         <v>9</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="66">
         <v>400</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="39">
         <v>4</v>
       </c>
       <c r="F7" s="9">
@@ -9842,21 +9721,21 @@
       <c r="O7" s="9">
         <v>1.907</v>
       </c>
-      <c r="P7" s="49">
+      <c r="P7" s="31">
         <f>AVERAGE(F7:O7)</f>
         <v>1.9036000000000002</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="31">
         <f>_xlfn.STDEV.P(F7:O7)</f>
         <v>1.1740528097151337E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="46">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="28">
         <v>16</v>
       </c>
       <c r="F8" s="12">
@@ -9889,21 +9768,21 @@
       <c r="O8" s="12">
         <v>7.6230000000000002</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="32">
         <f>AVERAGE(F8:O8)</f>
         <v>7.5342000000000011</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="32">
         <f>_xlfn.STDEV.P(F8:O8)</f>
         <v>6.8475981190487548E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="46">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="28">
         <v>64</v>
       </c>
       <c r="F9" s="12">
@@ -9936,21 +9815,21 @@
       <c r="O9" s="12">
         <v>30.289000000000001</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="32">
         <f>AVERAGE(F9:O9)</f>
         <v>30.170799999999996</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="32">
         <f>_xlfn.STDEV.P(F9:O9)</f>
         <v>0.33870217005505071</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="48">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="30">
         <v>256</v>
       </c>
       <c r="F10" s="16">
@@ -9962,53 +9841,53 @@
       <c r="H10" s="16">
         <v>42.536000000000001</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="42">
         <v>41.152333333333303</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="42">
         <v>41.485666666666702</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="42">
         <v>41.2113333333333</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="42">
         <v>41.057666666666698</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="42">
         <v>40.825666666666699</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="42">
         <v>41.503</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="42">
         <v>41.655000000000001</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="33">
         <f>AVERAGE(F10:O10)</f>
         <v>41.470066666666661</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="33">
         <f>_xlfn.STDEV.P(F10:O10)</f>
         <v>0.46196928228809253</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="32"/>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="46"/>
+      <c r="E11" s="28"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="50"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="43" t="s">
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="39">
         <v>4</v>
       </c>
       <c r="F12" s="9">
@@ -10029,33 +9908,33 @@
       <c r="K12" s="9">
         <v>3.7890000000000001</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="40">
         <v>4.2432912833473004</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="40">
         <v>3.8644682250862998</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="40">
         <v>3.9859495550487001</v>
       </c>
-      <c r="O12" s="58">
+      <c r="O12" s="40">
         <v>4.2924262509907001</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="41">
         <f>AVERAGE(F12:O12)</f>
         <v>4.0701393387029601</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="31">
         <f>_xlfn.STDEV.P(F12:O12)</f>
         <v>0.23637318128263937</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="46">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="28">
         <v>16</v>
       </c>
       <c r="F13" s="12">
@@ -10088,21 +9967,21 @@
       <c r="O13" s="14">
         <v>15.053620203493001</v>
       </c>
-      <c r="P13" s="52">
+      <c r="P13" s="34">
         <f>AVERAGE(F13:O13)</f>
         <v>15.215205091057802</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="32">
         <f>_xlfn.STDEV.P(F13:O13)</f>
         <v>0.2232129364667291</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="46">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="28">
         <v>64</v>
       </c>
       <c r="F14" s="12">
@@ -10135,21 +10014,21 @@
       <c r="O14" s="14">
         <v>60.341847975935003</v>
       </c>
-      <c r="P14" s="52">
+      <c r="P14" s="34">
         <f>AVERAGE(F14:O14)</f>
         <v>60.189705538715103</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="32">
         <f>_xlfn.STDEV.P(F14:O14)</f>
         <v>8.0535424339593667E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="48">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="30">
         <v>256</v>
       </c>
       <c r="F15" s="16">
@@ -10170,93 +10049,93 @@
       <c r="K15" s="16">
         <v>240.59200000000001</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15" s="42">
         <v>242.55634376303999</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="42">
         <v>240.96544424621999</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="42">
         <v>241.87729561134</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="42">
         <v>240.76978280342999</v>
       </c>
-      <c r="P15" s="61">
+      <c r="P15" s="43">
         <f>AVERAGE(F15:O15)</f>
         <v>241.43599664240304</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="33">
         <f>_xlfn.STDEV.P(F15:O15)</f>
         <v>0.70630994926299306</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="28"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="50"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="31">
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="66">
         <v>1024</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="39">
         <v>4</v>
       </c>
       <c r="F17" s="9">
         <v>12.592000000000001</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="40">
         <v>12.650447564319</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="40">
         <v>12.624502694347999</v>
       </c>
       <c r="I17" s="9">
         <v>12.613</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="40">
         <v>12.647748077929</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="40">
         <v>12.7146439334</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="40">
         <v>12.656531199045</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="40">
         <v>12.615971972438</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="40">
         <v>12.616419842403999</v>
       </c>
-      <c r="O17" s="58">
+      <c r="O17" s="40">
         <v>12.620098927233</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="41">
         <f>AVERAGE(F17:O17)</f>
         <v>12.635136421111602</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="31">
         <f>_xlfn.STDEV.P(F17:O17)</f>
         <v>3.2527260523393241E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="46">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="28">
         <v>16</v>
       </c>
       <c r="F18" s="12">
@@ -10289,21 +10168,21 @@
       <c r="O18" s="14">
         <v>50.208320432279002</v>
       </c>
-      <c r="P18" s="52">
+      <c r="P18" s="34">
         <f>AVERAGE(F18:O18)</f>
         <v>50.223104184341693</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="32">
         <f>_xlfn.STDEV.P(F18:O18)</f>
         <v>0.36858715655658647</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="46">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="28">
         <v>64</v>
       </c>
       <c r="F19" s="12">
@@ -10336,21 +10215,21 @@
       <c r="O19" s="14">
         <v>199.81433314419999</v>
       </c>
-      <c r="P19" s="52">
+      <c r="P19" s="34">
         <f>AVERAGE(F19:O19)</f>
         <v>200.03899284851599</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="32">
         <f>_xlfn.STDEV.P(F19:O19)</f>
         <v>0.72013750622399775</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="48">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="30">
         <v>256</v>
       </c>
       <c r="F20" s="16">
@@ -10365,50 +10244,50 @@
       <c r="I20" s="16">
         <v>796.40599999999995</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="42">
         <v>795.61370595860001</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="42">
         <v>798.77758577332997</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="42">
         <v>797.60890411202001</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="42">
         <v>800.94561514924999</v>
       </c>
-      <c r="N20" s="60">
+      <c r="N20" s="42">
         <v>799.83727041818997</v>
       </c>
-      <c r="O20" s="60">
+      <c r="O20" s="42">
         <v>801.20896242308004</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20" s="43">
         <f>AVERAGE(F20:O20)</f>
         <v>798.994304383447</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="33">
         <f>_xlfn.STDEV.P(F20:O20)</f>
         <v>3.0172278475592287</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="32"/>
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="46"/>
+      <c r="E21" s="28"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="50"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="43" t="s">
+      <c r="Q21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="39">
         <v>4</v>
       </c>
       <c r="F22" s="9">
@@ -10426,36 +10305,36 @@
       <c r="J22" s="9">
         <v>24.719000000000001</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="40">
         <v>25.134616172998001</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="40">
         <v>25.060343042622002</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="40">
         <v>25.292921303490999</v>
       </c>
-      <c r="N22" s="58">
+      <c r="N22" s="40">
         <v>24.96121290992</v>
       </c>
-      <c r="O22" s="58">
+      <c r="O22" s="40">
         <v>25.097540209596001</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="41">
         <f>AVERAGE(F22:O22)</f>
         <v>24.9713633638627</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="31">
         <f>_xlfn.STDEV.P(F22:O22)</f>
         <v>0.21167206911084846</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="46">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="28">
         <v>16</v>
       </c>
       <c r="F23" s="12">
@@ -10488,21 +10367,21 @@
       <c r="O23" s="14">
         <v>98.960760036348006</v>
       </c>
-      <c r="P23" s="52">
+      <c r="P23" s="34">
         <f>AVERAGE(F23:O23)</f>
         <v>98.978180721446705</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="32">
         <f>_xlfn.STDEV.P(F23:O23)</f>
         <v>0.51991932692120413</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="46">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="28">
         <v>64</v>
       </c>
       <c r="F24" s="12">
@@ -10535,21 +10414,21 @@
       <c r="O24" s="14">
         <v>393.67416190524</v>
       </c>
-      <c r="P24" s="52">
+      <c r="P24" s="34">
         <f>AVERAGE(F24:O24)</f>
         <v>393.90090141474298</v>
       </c>
-      <c r="Q24" s="50">
+      <c r="Q24" s="32">
         <f>_xlfn.STDEV.P(F24:O24)</f>
         <v>0.39471157647641142</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="48">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="30">
         <v>256</v>
       </c>
       <c r="F25" s="16">
@@ -10567,51 +10446,51 @@
       <c r="J25" s="16">
         <v>1575.21</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="42">
         <v>1573.7595276167001</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L25" s="42">
         <v>1575.7628660463999</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="42">
         <v>1576.0640430472999</v>
       </c>
-      <c r="N25" s="60">
+      <c r="N25" s="42">
         <v>1573.9601010655001</v>
       </c>
-      <c r="O25" s="60">
+      <c r="O25" s="42">
         <v>1575.9743109528999</v>
       </c>
-      <c r="P25" s="61">
+      <c r="P25" s="43">
         <f>AVERAGE(F25:O25)</f>
         <v>1575.09808487288</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="33">
         <f>_xlfn.STDEV.P(F25:O25)</f>
         <v>1.2200077519845274</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+    <row r="26" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="61"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="46"/>
+      <c r="E26" s="28"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="66"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="34">
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="63">
         <v>14</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="66">
         <v>400</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="39">
         <v>4</v>
       </c>
       <c r="F27" s="8">
@@ -10644,21 +10523,21 @@
       <c r="O27" s="9">
         <v>2.1989999999999998</v>
       </c>
-      <c r="P27" s="59">
+      <c r="P27" s="41">
         <f>AVERAGE(F27:O27)</f>
         <v>2.1366000000000001</v>
       </c>
-      <c r="Q27" s="49">
+      <c r="Q27" s="31">
         <f>_xlfn.STDEV.P(F27:O27)</f>
         <v>3.5157360538015325E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="46">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="28">
         <v>16</v>
       </c>
       <c r="F28" s="11">
@@ -10691,21 +10570,21 @@
       <c r="O28" s="12">
         <v>8.3670000000000009</v>
       </c>
-      <c r="P28" s="52">
+      <c r="P28" s="34">
         <f>AVERAGE(F28:O28)</f>
         <v>8.4360000000000017</v>
       </c>
-      <c r="Q28" s="50">
+      <c r="Q28" s="32">
         <f>_xlfn.STDEV.P(F28:O28)</f>
         <v>9.1017580719331026E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="46">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="28">
         <v>64</v>
       </c>
       <c r="F29" s="11">
@@ -10738,21 +10617,21 @@
       <c r="O29" s="12">
         <v>33.465000000000003</v>
       </c>
-      <c r="P29" s="52">
+      <c r="P29" s="34">
         <f>AVERAGE(F29:O29)</f>
         <v>33.628099999999996</v>
       </c>
-      <c r="Q29" s="50">
+      <c r="Q29" s="32">
         <f>_xlfn.STDEV.P(F29:O29)</f>
         <v>0.23329014124047232</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="48">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="61"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="30">
         <v>256</v>
       </c>
       <c r="F30" s="15">
@@ -10785,32 +10664,32 @@
       <c r="O30" s="16">
         <v>133.79900000000001</v>
       </c>
-      <c r="P30" s="61">
+      <c r="P30" s="43">
         <f>AVERAGE(F30:O30)</f>
         <v>134.31809999999999</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="33">
         <f>_xlfn.STDEV.P(F30:O30)</f>
         <v>0.8422620079286538</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="32"/>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="46"/>
+      <c r="E31" s="28"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="66"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="43" t="s">
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="39">
         <v>4</v>
       </c>
       <c r="F32" s="9">
@@ -10826,21 +10705,21 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="59">
+      <c r="P32" s="41">
         <f>AVERAGE(F32:O32)</f>
         <v>4.952</v>
       </c>
-      <c r="Q32" s="49">
+      <c r="Q32" s="31">
         <f>_xlfn.STDEV.P(F32:O32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="46">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="28">
         <v>16</v>
       </c>
       <c r="F33" s="12">
@@ -10856,21 +10735,21 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="52">
+      <c r="P33" s="34">
         <f>AVERAGE(F33:O33)</f>
         <v>18.126999999999999</v>
       </c>
-      <c r="Q33" s="50">
+      <c r="Q33" s="32">
         <f>_xlfn.STDEV.P(F33:O33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="46">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="28">
         <v>64</v>
       </c>
       <c r="F34" s="12">
@@ -10886,21 +10765,21 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="52">
+      <c r="P34" s="34">
         <f>AVERAGE(F34:O34)</f>
         <v>69.436999999999998</v>
       </c>
-      <c r="Q34" s="50">
+      <c r="Q34" s="32">
         <f>_xlfn.STDEV.P(F34:O34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="48">
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="61"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="30">
         <v>256</v>
       </c>
       <c r="F35" s="16">
@@ -10916,36 +10795,36 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
-      <c r="P35" s="61">
+      <c r="P35" s="43">
         <f>AVERAGE(F35:O35)</f>
         <v>274.37799999999999</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="Q35" s="33">
         <f>_xlfn.STDEV.P(F35:O35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+    <row r="36" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="46"/>
+      <c r="E36" s="28"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="66"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="34">
+      <c r="Q36" s="48"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="63">
         <v>20</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="66">
         <v>400</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="39">
         <v>4</v>
       </c>
       <c r="F37" s="8">
@@ -10968,21 +10847,21 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="59">
+      <c r="P37" s="41">
         <f>AVERAGE(F37:O37)</f>
         <v>2.3975999999999997</v>
       </c>
-      <c r="Q37" s="49">
+      <c r="Q37" s="31">
         <f>_xlfn.STDEV.P(F37:O37)</f>
         <v>2.3328951969601993E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="46">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="28">
         <v>16</v>
       </c>
       <c r="F38" s="11">
@@ -11005,21 +10884,21 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="52">
+      <c r="P38" s="34">
         <f>AVERAGE(F38:O38)</f>
         <v>9.5291999999999994</v>
       </c>
-      <c r="Q38" s="50">
+      <c r="Q38" s="32">
         <f>_xlfn.STDEV.P(F38:O38)</f>
         <v>0.13010672542186297</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="46">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="28">
         <v>64</v>
       </c>
       <c r="F39" s="11">
@@ -11042,21 +10921,21 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="52">
+      <c r="P39" s="34">
         <f>AVERAGE(F39:O39)</f>
         <v>37.9024</v>
       </c>
-      <c r="Q39" s="50">
+      <c r="Q39" s="32">
         <f>_xlfn.STDEV.P(F39:O39)</f>
         <v>0.41304217702312196</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="48">
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="61"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="30">
         <v>256</v>
       </c>
       <c r="F40" s="15">
@@ -11079,32 +10958,32 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
-      <c r="P40" s="61">
+      <c r="P40" s="43">
         <f>AVERAGE(F40:O40)</f>
         <v>152.084</v>
       </c>
-      <c r="Q40" s="51">
+      <c r="Q40" s="33">
         <f>_xlfn.STDEV.P(F40:O40)</f>
         <v>2.3166185702441386</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="32"/>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="61"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="46"/>
+      <c r="E41" s="28"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="66"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="43" t="s">
+      <c r="Q41" s="48"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="61"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="39">
         <v>4</v>
       </c>
       <c r="F42" s="9">
@@ -11120,21 +10999,21 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="59">
+      <c r="P42" s="41">
         <f>AVERAGE(F42:O42)</f>
         <v>5.4820000000000002</v>
       </c>
-      <c r="Q42" s="49">
+      <c r="Q42" s="31">
         <f>_xlfn.STDEV.P(F42:O42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="46">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="61"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="28">
         <v>16</v>
       </c>
       <c r="F43" s="12">
@@ -11150,21 +11029,21 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="52">
+      <c r="P43" s="34">
         <f>AVERAGE(F43:O43)</f>
         <v>20.167000000000002</v>
       </c>
-      <c r="Q43" s="50">
+      <c r="Q43" s="32">
         <f>_xlfn.STDEV.P(F43:O43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="46">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="28">
         <v>64</v>
       </c>
       <c r="F44" s="12">
@@ -11180,21 +11059,21 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="52">
+      <c r="P44" s="34">
         <f>AVERAGE(F44:O44)</f>
         <v>77.358999999999995</v>
       </c>
-      <c r="Q44" s="50">
+      <c r="Q44" s="32">
         <f>_xlfn.STDEV.P(F44:O44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="48">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="62"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="30">
         <v>256</v>
       </c>
       <c r="F45" s="16">
@@ -11210,37 +11089,37 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
-      <c r="P45" s="61">
+      <c r="P45" s="43">
         <f>AVERAGE(F45:O45)</f>
         <v>304.05500000000001</v>
       </c>
-      <c r="Q45" s="51">
+      <c r="Q45" s="33">
         <f>_xlfn.STDEV.P(F45:O45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="E46" s="46"/>
+    <row r="46" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="E46" s="28"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="66"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="Q46" s="48"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="63">
         <v>9</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="66">
         <v>400</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="39">
         <v>4</v>
       </c>
       <c r="F47" s="9">
@@ -11273,22 +11152,22 @@
       <c r="O47" s="9">
         <v>0.54700000000000004</v>
       </c>
-      <c r="P47" s="59">
+      <c r="P47" s="41">
         <f>AVERAGE(F47:O47)</f>
         <v>0.55420000000000003</v>
       </c>
-      <c r="Q47" s="49">
+      <c r="Q47" s="31">
         <f>_xlfn.STDEV.P(F47:O47)</f>
         <v>1.868047108613697E-2</v>
       </c>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="46">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="28">
         <v>16</v>
       </c>
       <c r="F48" s="12">
@@ -11321,22 +11200,22 @@
       <c r="O48" s="12">
         <v>2.181</v>
       </c>
-      <c r="P48" s="52">
+      <c r="P48" s="34">
         <f>AVERAGE(F48:O48)</f>
         <v>2.1819000000000002</v>
       </c>
-      <c r="Q48" s="50">
+      <c r="Q48" s="32">
         <f>_xlfn.STDEV.P(F48:O48)</f>
         <v>2.6139816372729097E-2</v>
       </c>
       <c r="R48" s="13"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="46">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="61"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="28">
         <v>64</v>
       </c>
       <c r="F49" s="12">
@@ -11369,22 +11248,22 @@
       <c r="O49" s="12">
         <v>8.5459999999999994</v>
       </c>
-      <c r="P49" s="52">
+      <c r="P49" s="34">
         <f>AVERAGE(F49:O49)</f>
         <v>8.5883000000000003</v>
       </c>
-      <c r="Q49" s="50">
+      <c r="Q49" s="32">
         <f>_xlfn.STDEV.P(F49:O49)</f>
         <v>3.9824741053772192E-2</v>
       </c>
       <c r="R49" s="13"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="48">
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="61"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="30">
         <v>256</v>
       </c>
       <c r="F50" s="16">
@@ -11417,33 +11296,33 @@
       <c r="O50" s="16">
         <v>34.014000000000003</v>
       </c>
-      <c r="P50" s="61">
+      <c r="P50" s="43">
         <f>AVERAGE(F50:O50)</f>
         <v>34.023800000000008</v>
       </c>
-      <c r="Q50" s="51">
+      <c r="Q50" s="33">
         <f>_xlfn.STDEV.P(F50:O50)</f>
         <v>8.8751112669080645E-2</v>
       </c>
       <c r="R50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="61"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="46"/>
+      <c r="E51" s="28"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="66"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="43" t="s">
+      <c r="Q51" s="48"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="61"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="39">
         <v>4</v>
       </c>
       <c r="F52" s="9"/>
@@ -11456,21 +11335,21 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="59" t="e">
+      <c r="P52" s="41" t="e">
         <f>AVERAGE(F52:O52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="49" t="e">
+      <c r="Q52" s="31" t="e">
         <f>_xlfn.STDEV.P(F52:O52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="46">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="61"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="28">
         <v>16</v>
       </c>
       <c r="F53" s="12"/>
@@ -11483,21 +11362,21 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="52" t="e">
+      <c r="P53" s="34" t="e">
         <f>AVERAGE(F53:O53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q53" s="50" t="e">
+      <c r="Q53" s="32" t="e">
         <f>_xlfn.STDEV.P(F53:O53)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="46">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="61"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="28">
         <v>64</v>
       </c>
       <c r="F54" s="12"/>
@@ -11510,21 +11389,21 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="52" t="e">
+      <c r="P54" s="34" t="e">
         <f>AVERAGE(F54:O54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q54" s="50" t="e">
+      <c r="Q54" s="32" t="e">
         <f>_xlfn.STDEV.P(F54:O54)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="48">
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="30">
         <v>256</v>
       </c>
       <c r="F55" s="16"/>
@@ -11537,34 +11416,34 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
-      <c r="P55" s="61" t="e">
+      <c r="P55" s="43" t="e">
         <f>AVERAGE(F55:O55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q55" s="51" t="e">
+      <c r="Q55" s="33" t="e">
         <f>_xlfn.STDEV.P(F55:O55)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="28"/>
+    <row r="56" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="28"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="66"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="31">
+      <c r="Q56" s="48"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="61"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="66">
         <v>1024</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="57">
+      <c r="E57" s="39">
         <v>4</v>
       </c>
       <c r="F57" s="9">
@@ -11597,21 +11476,21 @@
       <c r="O57" s="9">
         <v>3.5649999999999999</v>
       </c>
-      <c r="P57" s="59">
+      <c r="P57" s="41">
         <f>AVERAGE(F57:O57)</f>
         <v>3.5665999999999998</v>
       </c>
-      <c r="Q57" s="49">
+      <c r="Q57" s="31">
         <f>_xlfn.STDEV.P(F57:O57)</f>
         <v>2.089114645011143E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="46">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="61"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="28">
         <v>16</v>
       </c>
       <c r="F58" s="12">
@@ -11644,21 +11523,21 @@
       <c r="O58" s="12">
         <v>14.084</v>
       </c>
-      <c r="P58" s="52">
+      <c r="P58" s="34">
         <f>AVERAGE(F58:O58)</f>
         <v>14.025400000000001</v>
       </c>
-      <c r="Q58" s="50">
+      <c r="Q58" s="32">
         <f>_xlfn.STDEV.P(F58:O58)</f>
         <v>3.9807536974799322E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="46">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="61"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="28">
         <v>64</v>
       </c>
       <c r="F59" s="12">
@@ -11691,21 +11570,21 @@
       <c r="O59" s="12">
         <v>55.704000000000001</v>
       </c>
-      <c r="P59" s="52">
+      <c r="P59" s="34">
         <f>AVERAGE(F59:O59)</f>
         <v>55.898499999999999</v>
       </c>
-      <c r="Q59" s="50">
+      <c r="Q59" s="32">
         <f>_xlfn.STDEV.P(F59:O59)</f>
         <v>0.19389649300593298</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="48">
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="61"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="30">
         <v>256</v>
       </c>
       <c r="F60" s="16">
@@ -11738,32 +11617,32 @@
       <c r="O60" s="16">
         <v>222.369</v>
       </c>
-      <c r="P60" s="61">
+      <c r="P60" s="43">
         <f>AVERAGE(F60:O60)</f>
         <v>222.3997</v>
       </c>
-      <c r="Q60" s="51">
+      <c r="Q60" s="33">
         <f>_xlfn.STDEV.P(F60:O60)</f>
         <v>0.1607588566767007</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="32"/>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="61"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="46"/>
+      <c r="E61" s="28"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="66"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="43" t="s">
+      <c r="Q61" s="48"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="61"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="39">
         <v>4</v>
       </c>
       <c r="F62" s="9"/>
@@ -11776,21 +11655,21 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="59" t="e">
+      <c r="P62" s="41" t="e">
         <f>AVERAGE(F62:O62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q62" s="49" t="e">
+      <c r="Q62" s="31" t="e">
         <f>_xlfn.STDEV.P(F62:O62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="46">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="61"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="28">
         <v>16</v>
       </c>
       <c r="F63" s="12"/>
@@ -11803,21 +11682,21 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
-      <c r="P63" s="52" t="e">
+      <c r="P63" s="34" t="e">
         <f>AVERAGE(F63:O63)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q63" s="50" t="e">
+      <c r="Q63" s="32" t="e">
         <f>_xlfn.STDEV.P(F63:O63)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="46">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="61"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="28">
         <v>64</v>
       </c>
       <c r="F64" s="12"/>
@@ -11830,21 +11709,21 @@
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
-      <c r="P64" s="52" t="e">
+      <c r="P64" s="34" t="e">
         <f>AVERAGE(F64:O64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q64" s="50" t="e">
+      <c r="Q64" s="32" t="e">
         <f>_xlfn.STDEV.P(F64:O64)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="48">
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="61"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="30">
         <v>256</v>
       </c>
       <c r="F65" s="16"/>
@@ -11857,36 +11736,36 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="61" t="e">
+      <c r="P65" s="43" t="e">
         <f>AVERAGE(F65:O65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q65" s="51" t="e">
+      <c r="Q65" s="33" t="e">
         <f>_xlfn.STDEV.P(F65:O65)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="38"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
+    <row r="66" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="61"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="46"/>
+      <c r="E66" s="28"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="66"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="34">
+      <c r="Q66" s="48"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="61"/>
+      <c r="B67" s="63">
         <v>14</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="66">
         <v>400</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E67" s="39">
         <v>4</v>
       </c>
       <c r="F67" s="8">
@@ -11911,21 +11790,21 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="59">
+      <c r="P67" s="41">
         <f>AVERAGE(F67:O67)</f>
         <v>2.2056666666666667</v>
       </c>
-      <c r="Q67" s="49">
+      <c r="Q67" s="31">
         <f>_xlfn.STDEV.P(F67:O67)</f>
         <v>2.81108915230774E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="46">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="61"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="28">
         <v>16</v>
       </c>
       <c r="F68" s="11">
@@ -11950,21 +11829,21 @@
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
-      <c r="P68" s="52">
+      <c r="P68" s="34">
         <f>AVERAGE(F68:O68)</f>
         <v>8.7086666666666659</v>
       </c>
-      <c r="Q68" s="50">
+      <c r="Q68" s="32">
         <f>_xlfn.STDEV.P(F68:O68)</f>
         <v>7.5331858392640796E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="46">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="61"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="28">
         <v>64</v>
       </c>
       <c r="F69" s="11">
@@ -11989,21 +11868,21 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
-      <c r="P69" s="52">
+      <c r="P69" s="34">
         <f>AVERAGE(F69:O69)</f>
         <v>34.696499999999993</v>
       </c>
-      <c r="Q69" s="50">
+      <c r="Q69" s="32">
         <f>_xlfn.STDEV.P(F69:O69)</f>
         <v>0.30320056618240804</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="48">
+    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="61"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="30">
         <v>256</v>
       </c>
       <c r="F70" s="15">
@@ -12028,32 +11907,32 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="61">
+      <c r="P70" s="43">
         <f>AVERAGE(F70:O70)</f>
         <v>138.95983333333331</v>
       </c>
-      <c r="Q70" s="51">
+      <c r="Q70" s="33">
         <f>_xlfn.STDEV.P(F70:O70)</f>
         <v>1.6389639427258755</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="32"/>
+    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="61"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="46"/>
+      <c r="E71" s="28"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="66"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="43" t="s">
+      <c r="Q71" s="48"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="57">
+      <c r="E72" s="39">
         <v>4</v>
       </c>
       <c r="F72" s="9"/>
@@ -12066,21 +11945,21 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
-      <c r="P72" s="59" t="e">
+      <c r="P72" s="41" t="e">
         <f>AVERAGE(F72:O72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q72" s="49" t="e">
+      <c r="Q72" s="31" t="e">
         <f>_xlfn.STDEV.P(F72:O72)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="46">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="61"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="28">
         <v>16</v>
       </c>
       <c r="F73" s="12"/>
@@ -12093,21 +11972,21 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
-      <c r="P73" s="52" t="e">
+      <c r="P73" s="34" t="e">
         <f>AVERAGE(F73:O73)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q73" s="50" t="e">
+      <c r="Q73" s="32" t="e">
         <f>_xlfn.STDEV.P(F73:O73)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="46">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="61"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="28">
         <v>64</v>
       </c>
       <c r="F74" s="12"/>
@@ -12120,21 +11999,21 @@
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
-      <c r="P74" s="52" t="e">
+      <c r="P74" s="34" t="e">
         <f>AVERAGE(F74:O74)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q74" s="50" t="e">
+      <c r="Q74" s="32" t="e">
         <f>_xlfn.STDEV.P(F74:O74)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="48">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="61"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="30">
         <v>256</v>
       </c>
       <c r="F75" s="16"/>
@@ -12147,36 +12026,36 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
-      <c r="P75" s="61" t="e">
+      <c r="P75" s="43" t="e">
         <f>AVERAGE(F75:O75)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q75" s="51" t="e">
+      <c r="Q75" s="33" t="e">
         <f>_xlfn.STDEV.P(F75:O75)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
+    <row r="76" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="61"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="46"/>
+      <c r="E76" s="28"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="66"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="34">
+      <c r="Q76" s="48"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="61"/>
+      <c r="B77" s="63">
         <v>20</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="66">
         <v>400</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="57">
+      <c r="E77" s="39">
         <v>4</v>
       </c>
       <c r="F77" s="8">
@@ -12199,21 +12078,21 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="10"/>
-      <c r="P77" s="59">
+      <c r="P77" s="41">
         <f>AVERAGE(F77:O77)</f>
         <v>2.4584000000000001</v>
       </c>
-      <c r="Q77" s="49">
+      <c r="Q77" s="31">
         <f>_xlfn.STDEV.P(F77:O77)</f>
         <v>2.8660774588276584E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="46">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="28">
         <v>16</v>
       </c>
       <c r="F78" s="11">
@@ -12236,21 +12115,21 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="52">
+      <c r="P78" s="34">
         <f>AVERAGE(F78:O78)</f>
         <v>9.6996000000000002</v>
       </c>
-      <c r="Q78" s="50">
+      <c r="Q78" s="32">
         <f>_xlfn.STDEV.P(F78:O78)</f>
         <v>0.10818798454541997</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="46">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="61"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="28">
         <v>64</v>
       </c>
       <c r="F79" s="11">
@@ -12273,21 +12152,21 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
       <c r="O79" s="13"/>
-      <c r="P79" s="52">
+      <c r="P79" s="34">
         <f>AVERAGE(F79:O79)</f>
         <v>38.593000000000004</v>
       </c>
-      <c r="Q79" s="50">
+      <c r="Q79" s="32">
         <f>_xlfn.STDEV.P(F79:O79)</f>
         <v>0.39706372284559061</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="38"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="48">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="61"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="30">
         <v>256</v>
       </c>
       <c r="F80" s="15">
@@ -12310,32 +12189,32 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="17"/>
-      <c r="P80" s="61">
+      <c r="P80" s="43">
         <f>AVERAGE(F80:O80)</f>
         <v>154.57939999999999</v>
       </c>
-      <c r="Q80" s="51">
+      <c r="Q80" s="33">
         <f>_xlfn.STDEV.P(F80:O80)</f>
         <v>0.70940386240843001</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="32"/>
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="61"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="67"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="46"/>
+      <c r="E81" s="28"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="66"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="43" t="s">
+      <c r="Q81" s="48"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="61"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="57">
+      <c r="E82" s="39">
         <v>4</v>
       </c>
       <c r="F82" s="9"/>
@@ -12348,21 +12227,21 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
-      <c r="P82" s="59" t="e">
+      <c r="P82" s="41" t="e">
         <f>AVERAGE(F82:O82)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q82" s="49" t="e">
+      <c r="Q82" s="31" t="e">
         <f>_xlfn.STDEV.P(F82:O82)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="46">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="61"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="28">
         <v>16</v>
       </c>
       <c r="F83" s="12"/>
@@ -12375,21 +12254,21 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
-      <c r="P83" s="52" t="e">
+      <c r="P83" s="34" t="e">
         <f>AVERAGE(F83:O83)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q83" s="50" t="e">
+      <c r="Q83" s="32" t="e">
         <f>_xlfn.STDEV.P(F83:O83)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="46">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="61"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="28">
         <v>64</v>
       </c>
       <c r="F84" s="12"/>
@@ -12402,21 +12281,21 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
-      <c r="P84" s="52" t="e">
+      <c r="P84" s="34" t="e">
         <f>AVERAGE(F84:O84)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q84" s="50" t="e">
+      <c r="Q84" s="32" t="e">
         <f>_xlfn.STDEV.P(F84:O84)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="48">
+    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="62"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="30">
         <v>256</v>
       </c>
       <c r="F85" s="16"/>
@@ -12429,21 +12308,21 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
-      <c r="P85" s="61" t="e">
+      <c r="P85" s="43" t="e">
         <f>AVERAGE(F85:O85)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q85" s="51" t="e">
+      <c r="Q85" s="33" t="e">
         <f>_xlfn.STDEV.P(F85:O85)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="28"/>
+    <row r="86" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="47"/>
+      <c r="E86" s="29"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -12451,22 +12330,22 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="66"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
+      <c r="Q86" s="48"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="34">
+      <c r="B87" s="63">
         <v>9</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87" s="66">
         <v>400</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="57">
+      <c r="E87" s="39">
         <v>4</v>
       </c>
       <c r="F87" s="9">
@@ -12499,21 +12378,21 @@
       <c r="O87" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P87" s="59">
+      <c r="P87" s="41">
         <f>AVERAGE(F87:O87)</f>
         <v>0.61760000000000004</v>
       </c>
-      <c r="Q87" s="49">
+      <c r="Q87" s="31">
         <f>_xlfn.STDEV.P(F87:O87)</f>
         <v>3.3687386363444705E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="46">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="61"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="28">
         <v>16</v>
       </c>
       <c r="F88" s="12">
@@ -12546,21 +12425,21 @@
       <c r="O88" s="12">
         <v>2.3010000000000002</v>
       </c>
-      <c r="P88" s="52">
+      <c r="P88" s="34">
         <f>AVERAGE(F88:O88)</f>
         <v>2.3210999999999999</v>
       </c>
-      <c r="Q88" s="50">
+      <c r="Q88" s="32">
         <f>_xlfn.STDEV.P(F88:O88)</f>
         <v>2.8804339950778229E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="46">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="61"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="28">
         <v>64</v>
       </c>
       <c r="F89" s="12">
@@ -12593,21 +12472,21 @@
       <c r="O89" s="12">
         <v>9.1300000000000008</v>
       </c>
-      <c r="P89" s="52">
+      <c r="P89" s="34">
         <f>AVERAGE(F89:O89)</f>
         <v>9.0956999999999972</v>
       </c>
-      <c r="Q89" s="50">
+      <c r="Q89" s="32">
         <f>_xlfn.STDEV.P(F89:O89)</f>
         <v>8.0111235167110231E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="48">
+    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="61"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="30">
         <v>256</v>
       </c>
       <c r="F90" s="16">
@@ -12640,32 +12519,32 @@
       <c r="O90" s="16">
         <v>36.49</v>
       </c>
-      <c r="P90" s="61">
+      <c r="P90" s="43">
         <f>AVERAGE(F90:O90)</f>
         <v>36.235700000000001</v>
       </c>
-      <c r="Q90" s="51">
+      <c r="Q90" s="33">
         <f>_xlfn.STDEV.P(F90:O90)</f>
         <v>0.24906868530588172</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="38"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="32"/>
+    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="61"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="46"/>
+      <c r="E91" s="28"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="66"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="43" t="s">
+      <c r="Q91" s="48"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="61"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="57">
+      <c r="E92" s="39">
         <v>4</v>
       </c>
       <c r="F92" s="9">
@@ -12698,21 +12577,21 @@
       <c r="O92" s="9">
         <v>1.698</v>
       </c>
-      <c r="P92" s="59">
+      <c r="P92" s="41">
         <f>AVERAGE(F92:O92)</f>
         <v>1.6824999999999999</v>
       </c>
-      <c r="Q92" s="49">
+      <c r="Q92" s="31">
         <f>_xlfn.STDEV.P(F92:O92)</f>
         <v>0.12300101625596424</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="46">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="61"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="28">
         <v>16</v>
       </c>
       <c r="F93" s="12">
@@ -12745,21 +12624,21 @@
       <c r="O93" s="12">
         <v>6.25</v>
       </c>
-      <c r="P93" s="52">
+      <c r="P93" s="34">
         <f>AVERAGE(F93:O93)</f>
         <v>6.3928999999999991</v>
       </c>
-      <c r="Q93" s="50">
+      <c r="Q93" s="32">
         <f>_xlfn.STDEV.P(F93:O93)</f>
         <v>0.22714200404152463</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="46">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="61"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="28">
         <v>64</v>
       </c>
       <c r="F94" s="12">
@@ -12792,21 +12671,21 @@
       <c r="O94" s="12">
         <v>25.463999999999999</v>
       </c>
-      <c r="P94" s="52">
+      <c r="P94" s="34">
         <f>AVERAGE(F94:O94)</f>
         <v>25.055</v>
       </c>
-      <c r="Q94" s="50">
+      <c r="Q94" s="32">
         <f>_xlfn.STDEV.P(F94:O94)</f>
         <v>0.16400243900625328</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="48">
+    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="61"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="30">
         <v>256</v>
       </c>
       <c r="F95" s="16">
@@ -12839,34 +12718,34 @@
       <c r="O95" s="16">
         <v>99.596999999999994</v>
       </c>
-      <c r="P95" s="61">
+      <c r="P95" s="43">
         <f>AVERAGE(F95:O95)</f>
         <v>101.74979999999999</v>
       </c>
-      <c r="Q95" s="51">
+      <c r="Q95" s="33">
         <f>_xlfn.STDEV.P(F95:O95)</f>
         <v>1.6086719242903464</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="28"/>
+    <row r="96" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="61"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="46"/>
+      <c r="E96" s="28"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="66"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="31">
+      <c r="Q96" s="48"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="61"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="66">
         <v>1024</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="57">
+      <c r="E97" s="39">
         <v>4</v>
       </c>
       <c r="F97" s="9">
@@ -12899,21 +12778,21 @@
       <c r="O97" s="9">
         <v>3.7010000000000001</v>
       </c>
-      <c r="P97" s="59">
+      <c r="P97" s="41">
         <f>AVERAGE(F97:O97)</f>
         <v>3.7869999999999999</v>
       </c>
-      <c r="Q97" s="49">
+      <c r="Q97" s="31">
         <f>_xlfn.STDEV.P(F97:O97)</f>
         <v>7.0423007604049417E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="46">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="61"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="28">
         <v>16</v>
       </c>
       <c r="F98" s="12">
@@ -12946,21 +12825,21 @@
       <c r="O98" s="12">
         <v>14.726000000000001</v>
       </c>
-      <c r="P98" s="52">
+      <c r="P98" s="34">
         <f>AVERAGE(F98:O98)</f>
         <v>14.8978</v>
       </c>
-      <c r="Q98" s="50">
+      <c r="Q98" s="32">
         <f>_xlfn.STDEV.P(F98:O98)</f>
         <v>0.10479389295183161</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="46">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="61"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="28">
         <v>64</v>
       </c>
       <c r="F99" s="12">
@@ -12993,21 +12872,21 @@
       <c r="O99" s="12">
         <v>58.918999999999997</v>
       </c>
-      <c r="P99" s="52">
+      <c r="P99" s="34">
         <f>AVERAGE(F99:O99)</f>
         <v>59.442399999999999</v>
       </c>
-      <c r="Q99" s="50">
+      <c r="Q99" s="32">
         <f>_xlfn.STDEV.P(F99:O99)</f>
         <v>0.42089314558448254</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="48">
+    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="61"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="30">
         <v>256</v>
       </c>
       <c r="F100" s="16">
@@ -13040,32 +12919,32 @@
       <c r="O100" s="16">
         <v>236.60499999999999</v>
       </c>
-      <c r="P100" s="61">
+      <c r="P100" s="43">
         <f>AVERAGE(F100:O100)</f>
         <v>237.87549999999996</v>
       </c>
-      <c r="Q100" s="51">
+      <c r="Q100" s="33">
         <f>_xlfn.STDEV.P(F100:O100)</f>
         <v>0.8222910980911845</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="32"/>
+    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="61"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="67"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="46"/>
+      <c r="E101" s="28"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="66"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="43" t="s">
+      <c r="Q101" s="48"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="61"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="57">
+      <c r="E102" s="39">
         <v>4</v>
       </c>
       <c r="F102" s="9">
@@ -13098,21 +12977,21 @@
       <c r="O102" s="9">
         <v>10.207000000000001</v>
       </c>
-      <c r="P102" s="59">
+      <c r="P102" s="41">
         <f>AVERAGE(F102:O102)</f>
         <v>10.566599999999999</v>
       </c>
-      <c r="Q102" s="49">
+      <c r="Q102" s="31">
         <f>_xlfn.STDEV.P(F102:O102)</f>
         <v>0.41862398402384937</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="46">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="61"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="28">
         <v>16</v>
       </c>
       <c r="F103" s="12">
@@ -13145,21 +13024,21 @@
       <c r="O103" s="12">
         <v>40.978999999999999</v>
       </c>
-      <c r="P103" s="52">
+      <c r="P103" s="34">
         <f>AVERAGE(F103:O103)</f>
         <v>40.785999999999987</v>
       </c>
-      <c r="Q103" s="50">
+      <c r="Q103" s="32">
         <f>_xlfn.STDEV.P(F103:O103)</f>
         <v>0.15627155851273677</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="46">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="61"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="28">
         <v>64</v>
       </c>
       <c r="F104" s="12">
@@ -13192,21 +13071,21 @@
       <c r="O104" s="12">
         <v>164.82599999999999</v>
       </c>
-      <c r="P104" s="52">
+      <c r="P104" s="34">
         <f>AVERAGE(F104:O104)</f>
         <v>164.77969999999999</v>
       </c>
-      <c r="Q104" s="50">
+      <c r="Q104" s="32">
         <f>_xlfn.STDEV.P(F104:O104)</f>
         <v>0.7006822461001796</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="48">
+    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="61"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="30">
         <v>256</v>
       </c>
       <c r="F105" s="16">
@@ -13239,36 +13118,36 @@
       <c r="O105" s="16">
         <v>662.32299999999998</v>
       </c>
-      <c r="P105" s="61">
+      <c r="P105" s="43">
         <f>AVERAGE(F105:O105)</f>
         <v>659.47900000000004</v>
       </c>
-      <c r="Q105" s="51">
+      <c r="Q105" s="33">
         <f>_xlfn.STDEV.P(F105:O105)</f>
         <v>2.8229415509358486</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="38"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="28"/>
+    <row r="106" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="61"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="46"/>
+      <c r="E106" s="28"/>
       <c r="P106" s="11"/>
-      <c r="Q106" s="66"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="34">
+      <c r="Q106" s="48"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="61"/>
+      <c r="B107" s="63">
         <v>14</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="66">
         <v>400</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D107" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="57">
+      <c r="E107" s="39">
         <v>4</v>
       </c>
       <c r="F107" s="8">
@@ -13291,21 +13170,21 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
-      <c r="P107" s="59">
+      <c r="P107" s="41">
         <f>AVERAGE(F107:O107)</f>
         <v>0.65860000000000007</v>
       </c>
-      <c r="Q107" s="49">
+      <c r="Q107" s="31">
         <f>_xlfn.STDEV.P(F107:O107)</f>
         <v>3.185341425969905E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="46">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" s="61"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="28">
         <v>16</v>
       </c>
       <c r="F108" s="11">
@@ -13328,21 +13207,21 @@
       <c r="M108" s="12"/>
       <c r="N108" s="12"/>
       <c r="O108" s="12"/>
-      <c r="P108" s="52">
+      <c r="P108" s="34">
         <f>AVERAGE(F108:O108)</f>
         <v>2.5259999999999998</v>
       </c>
-      <c r="Q108" s="50">
+      <c r="Q108" s="32">
         <f>_xlfn.STDEV.P(F108:O108)</f>
         <v>4.0358394418014233E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="46">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" s="61"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="28">
         <v>64</v>
       </c>
       <c r="F109" s="11">
@@ -13365,21 +13244,21 @@
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
       <c r="O109" s="12"/>
-      <c r="P109" s="52">
+      <c r="P109" s="34">
         <f>AVERAGE(F109:O109)</f>
         <v>9.8857999999999997</v>
       </c>
-      <c r="Q109" s="50">
+      <c r="Q109" s="32">
         <f>_xlfn.STDEV.P(F109:O109)</f>
         <v>6.8455533012313607E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="48">
+    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="61"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="30">
         <v>256</v>
       </c>
       <c r="F110" s="15">
@@ -13402,32 +13281,32 @@
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
       <c r="O110" s="16"/>
-      <c r="P110" s="61">
+      <c r="P110" s="43">
         <f>AVERAGE(F110:O110)</f>
         <v>39.31</v>
       </c>
-      <c r="Q110" s="51">
+      <c r="Q110" s="33">
         <f>_xlfn.STDEV.P(F110:O110)</f>
         <v>0.11391751401781791</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="32"/>
+    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="61"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="46"/>
+      <c r="E111" s="28"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="66"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="43" t="s">
+      <c r="Q111" s="48"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" s="61"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="57">
+      <c r="E112" s="39">
         <v>4</v>
       </c>
       <c r="F112" s="9"/>
@@ -13440,21 +13319,21 @@
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
-      <c r="P112" s="59" t="e">
+      <c r="P112" s="41" t="e">
         <f>AVERAGE(F112:O112)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q112" s="49" t="e">
+      <c r="Q112" s="31" t="e">
         <f>_xlfn.STDEV.P(F112:O112)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="46">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113" s="61"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="28">
         <v>16</v>
       </c>
       <c r="F113" s="12"/>
@@ -13467,21 +13346,21 @@
       <c r="M113" s="12"/>
       <c r="N113" s="12"/>
       <c r="O113" s="12"/>
-      <c r="P113" s="52" t="e">
+      <c r="P113" s="34" t="e">
         <f>AVERAGE(F113:O113)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q113" s="50" t="e">
+      <c r="Q113" s="32" t="e">
         <f>_xlfn.STDEV.P(F113:O113)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="46">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114" s="61"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="70"/>
+      <c r="E114" s="28">
         <v>64</v>
       </c>
       <c r="F114" s="12"/>
@@ -13494,21 +13373,21 @@
       <c r="M114" s="12"/>
       <c r="N114" s="12"/>
       <c r="O114" s="12"/>
-      <c r="P114" s="52" t="e">
+      <c r="P114" s="34" t="e">
         <f>AVERAGE(F114:O114)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q114" s="50" t="e">
+      <c r="Q114" s="32" t="e">
         <f>_xlfn.STDEV.P(F114:O114)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="48">
+    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="61"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="30">
         <v>256</v>
       </c>
       <c r="F115" s="16"/>
@@ -13521,36 +13400,36 @@
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
       <c r="O115" s="16"/>
-      <c r="P115" s="61" t="e">
+      <c r="P115" s="43" t="e">
         <f>AVERAGE(F115:O115)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q115" s="51" t="e">
+      <c r="Q115" s="33" t="e">
         <f>_xlfn.STDEV.P(F115:O115)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="38"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
+    <row r="116" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="61"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="46"/>
+      <c r="E116" s="28"/>
       <c r="P116" s="11"/>
-      <c r="Q116" s="66"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="34">
+      <c r="Q116" s="48"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" s="61"/>
+      <c r="B117" s="63">
         <v>20</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="66">
         <v>400</v>
       </c>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="57">
+      <c r="E117" s="39">
         <v>4</v>
       </c>
       <c r="F117" s="8">
@@ -13573,21 +13452,21 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="10"/>
-      <c r="P117" s="59">
+      <c r="P117" s="41">
         <f>AVERAGE(F117:O117)</f>
         <v>0.67480000000000007</v>
       </c>
-      <c r="Q117" s="49">
+      <c r="Q117" s="31">
         <f>_xlfn.STDEV.P(F117:O117)</f>
         <v>1.8258148865643517E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="46">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118" s="61"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="28">
         <v>16</v>
       </c>
       <c r="F118" s="11">
@@ -13610,21 +13489,21 @@
       <c r="M118" s="12"/>
       <c r="N118" s="12"/>
       <c r="O118" s="13"/>
-      <c r="P118" s="52">
+      <c r="P118" s="34">
         <f>AVERAGE(F118:O118)</f>
         <v>2.6795999999999998</v>
       </c>
-      <c r="Q118" s="50">
+      <c r="Q118" s="32">
         <f>_xlfn.STDEV.P(F118:O118)</f>
         <v>1.5331014317389495E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="46">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" s="61"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="28">
         <v>64</v>
       </c>
       <c r="F119" s="11">
@@ -13647,21 +13526,21 @@
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
       <c r="O119" s="13"/>
-      <c r="P119" s="52">
+      <c r="P119" s="34">
         <f>AVERAGE(F119:O119)</f>
         <v>10.510199999999999</v>
       </c>
-      <c r="Q119" s="50">
+      <c r="Q119" s="32">
         <f>_xlfn.STDEV.P(F119:O119)</f>
         <v>2.7264629100723449E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="38"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="48">
+    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="61"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="30">
         <v>256</v>
       </c>
       <c r="F120" s="15">
@@ -13684,32 +13563,32 @@
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
       <c r="O120" s="17"/>
-      <c r="P120" s="61">
+      <c r="P120" s="43">
         <f>AVERAGE(F120:O120)</f>
         <v>41.925799999999995</v>
       </c>
-      <c r="Q120" s="51">
+      <c r="Q120" s="33">
         <f>_xlfn.STDEV.P(F120:O120)</f>
         <v>9.5445062732442618E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="38"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="32"/>
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="61"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="67"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="46"/>
+      <c r="E121" s="28"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="66"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="43" t="s">
+      <c r="Q121" s="48"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122" s="61"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="57">
+      <c r="E122" s="39">
         <v>4</v>
       </c>
       <c r="F122" s="9"/>
@@ -13722,21 +13601,21 @@
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
-      <c r="P122" s="59" t="e">
+      <c r="P122" s="41" t="e">
         <f>AVERAGE(F122:O122)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q122" s="49" t="e">
+      <c r="Q122" s="31" t="e">
         <f>_xlfn.STDEV.P(F122:O122)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="46">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123" s="61"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="28">
         <v>16</v>
       </c>
       <c r="F123" s="12"/>
@@ -13749,21 +13628,21 @@
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
       <c r="O123" s="12"/>
-      <c r="P123" s="52" t="e">
+      <c r="P123" s="34" t="e">
         <f>AVERAGE(F123:O123)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q123" s="50" t="e">
+      <c r="Q123" s="32" t="e">
         <f>_xlfn.STDEV.P(F123:O123)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="46">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124" s="61"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="28">
         <v>64</v>
       </c>
       <c r="F124" s="12"/>
@@ -13776,21 +13655,21 @@
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
       <c r="O124" s="12"/>
-      <c r="P124" s="52" t="e">
+      <c r="P124" s="34" t="e">
         <f>AVERAGE(F124:O124)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q124" s="50" t="e">
+      <c r="Q124" s="32" t="e">
         <f>_xlfn.STDEV.P(F124:O124)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="48">
+    <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="62"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="30">
         <v>256</v>
       </c>
       <c r="F125" s="16"/>
@@ -13803,37 +13682,37 @@
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
       <c r="O125" s="16"/>
-      <c r="P125" s="61" t="e">
+      <c r="P125" s="43" t="e">
         <f>AVERAGE(F125:O125)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q125" s="51" t="e">
+      <c r="Q125" s="33" t="e">
         <f>_xlfn.STDEV.P(F125:O125)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="28"/>
-      <c r="E126" s="46"/>
+    <row r="126" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="21"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="22"/>
+      <c r="E126" s="28"/>
       <c r="P126" s="11"/>
-      <c r="Q126" s="46"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
+      <c r="Q126" s="28"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A127" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B127" s="34">
+      <c r="B127" s="63">
         <v>9</v>
       </c>
-      <c r="C127" s="31">
+      <c r="C127" s="66">
         <v>400</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="D127" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="57">
+      <c r="E127" s="39">
         <v>4</v>
       </c>
       <c r="F127" s="9">
@@ -13866,21 +13745,21 @@
       <c r="O127" s="9">
         <v>0.53600000000000003</v>
       </c>
-      <c r="P127" s="59">
+      <c r="P127" s="41">
         <f>AVERAGE(F127:O127)</f>
         <v>0.53309999999999991</v>
       </c>
-      <c r="Q127" s="49">
+      <c r="Q127" s="31">
         <f>_xlfn.STDEV.P(F127:O127)</f>
         <v>1.5871042813879608E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="46">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128" s="61"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="28">
         <v>16</v>
       </c>
       <c r="F128" s="12">
@@ -13913,21 +13792,21 @@
       <c r="O128" s="12">
         <v>2.129</v>
       </c>
-      <c r="P128" s="52">
+      <c r="P128" s="34">
         <f>AVERAGE(F128:O128)</f>
         <v>2.1183000000000005</v>
       </c>
-      <c r="Q128" s="50">
+      <c r="Q128" s="32">
         <f>_xlfn.STDEV.P(F128:O128)</f>
         <v>3.0754024126933392E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="46">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" s="61"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="28">
         <v>64</v>
       </c>
       <c r="F129" s="12">
@@ -13960,21 +13839,21 @@
       <c r="O129" s="12">
         <v>8.4160000000000004</v>
       </c>
-      <c r="P129" s="52">
+      <c r="P129" s="34">
         <f>AVERAGE(F129:O129)</f>
         <v>8.3632999999999988</v>
       </c>
-      <c r="Q129" s="50">
+      <c r="Q129" s="32">
         <f>_xlfn.STDEV.P(F129:O129)</f>
         <v>3.8008025468314E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="38"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="48">
+    <row r="130" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="61"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="30">
         <v>256</v>
       </c>
       <c r="F130" s="16">
@@ -14007,32 +13886,32 @@
       <c r="O130" s="16">
         <v>33.750999999999998</v>
       </c>
-      <c r="P130" s="61">
+      <c r="P130" s="43">
         <f>AVERAGE(F130:O130)</f>
         <v>33.372499999999995</v>
       </c>
-      <c r="Q130" s="51">
+      <c r="Q130" s="33">
         <f>_xlfn.STDEV.P(F130:O130)</f>
         <v>0.15980691474401101</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="38"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="32"/>
+    <row r="131" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="61"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="67"/>
       <c r="D131" s="19"/>
-      <c r="E131" s="46"/>
+      <c r="E131" s="28"/>
       <c r="P131" s="11"/>
-      <c r="Q131" s="66"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="43" t="s">
+      <c r="Q131" s="48"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" s="61"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E132" s="57">
+      <c r="E132" s="39">
         <v>4</v>
       </c>
       <c r="F132" s="9"/>
@@ -14045,21 +13924,21 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
-      <c r="P132" s="59" t="e">
+      <c r="P132" s="41" t="e">
         <f>AVERAGE(F132:O132)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q132" s="49" t="e">
+      <c r="Q132" s="31" t="e">
         <f>_xlfn.STDEV.P(F132:O132)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="46">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" s="61"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="70"/>
+      <c r="E133" s="28">
         <v>16</v>
       </c>
       <c r="F133" s="12"/>
@@ -14072,21 +13951,21 @@
       <c r="M133" s="12"/>
       <c r="N133" s="12"/>
       <c r="O133" s="12"/>
-      <c r="P133" s="52" t="e">
+      <c r="P133" s="34" t="e">
         <f>AVERAGE(F133:O133)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q133" s="50" t="e">
+      <c r="Q133" s="32" t="e">
         <f>_xlfn.STDEV.P(F133:O133)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="46">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" s="61"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="28">
         <v>64</v>
       </c>
       <c r="F134" s="12"/>
@@ -14099,21 +13978,21 @@
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
       <c r="O134" s="12"/>
-      <c r="P134" s="52" t="e">
+      <c r="P134" s="34" t="e">
         <f>AVERAGE(F134:O134)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q134" s="50" t="e">
+      <c r="Q134" s="32" t="e">
         <f>_xlfn.STDEV.P(F134:O134)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="38"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="48">
+    <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="61"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="30">
         <v>256</v>
       </c>
       <c r="F135" s="16"/>
@@ -14126,34 +14005,34 @@
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
       <c r="O135" s="16"/>
-      <c r="P135" s="61" t="e">
+      <c r="P135" s="43" t="e">
         <f>AVERAGE(F135:O135)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q135" s="51" t="e">
+      <c r="Q135" s="33" t="e">
         <f>_xlfn.STDEV.P(F135:O135)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="38"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="28"/>
+    <row r="136" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="61"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="22"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="46"/>
+      <c r="E136" s="28"/>
       <c r="P136" s="11"/>
-      <c r="Q136" s="66"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="31">
+      <c r="Q136" s="48"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" s="61"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="66">
         <v>1024</v>
       </c>
-      <c r="D137" s="43" t="s">
+      <c r="D137" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E137" s="57">
+      <c r="E137" s="39">
         <v>4</v>
       </c>
       <c r="F137" s="9">
@@ -14186,21 +14065,21 @@
       <c r="O137" s="9">
         <v>3.8039999999999998</v>
       </c>
-      <c r="P137" s="59">
+      <c r="P137" s="41">
         <f>AVERAGE(F137:O137)</f>
         <v>3.7914000000000003</v>
       </c>
-      <c r="Q137" s="49">
+      <c r="Q137" s="31">
         <f>_xlfn.STDEV.P(F137:O137)</f>
         <v>4.5462512029143254E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="38"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="46">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" s="61"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="28">
         <v>16</v>
       </c>
       <c r="F138" s="12">
@@ -14233,21 +14112,21 @@
       <c r="O138" s="12">
         <v>15.186</v>
       </c>
-      <c r="P138" s="52">
+      <c r="P138" s="34">
         <f>AVERAGE(F138:O138)</f>
         <v>15.003500000000003</v>
       </c>
-      <c r="Q138" s="50">
+      <c r="Q138" s="32">
         <f>_xlfn.STDEV.P(F138:O138)</f>
         <v>0.11298694614865898</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="46">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" s="61"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="28">
         <v>64</v>
       </c>
       <c r="F139" s="12">
@@ -14280,21 +14159,21 @@
       <c r="O139" s="12">
         <v>59.94</v>
       </c>
-      <c r="P139" s="52">
+      <c r="P139" s="34">
         <f>AVERAGE(F139:O139)</f>
         <v>59.942599999999992</v>
       </c>
-      <c r="Q139" s="50">
+      <c r="Q139" s="32">
         <f>_xlfn.STDEV.P(F139:O139)</f>
         <v>0.3795173777312435</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="38"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="48">
+    <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="61"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="30">
         <v>256</v>
       </c>
       <c r="F140" s="16">
@@ -14327,32 +14206,32 @@
       <c r="O140" s="16">
         <v>240.77199999999999</v>
       </c>
-      <c r="P140" s="61">
+      <c r="P140" s="43">
         <f>AVERAGE(F140:O140)</f>
         <v>240.22819999999996</v>
       </c>
-      <c r="Q140" s="51">
+      <c r="Q140" s="33">
         <f>_xlfn.STDEV.P(F140:O140)</f>
         <v>1.2765721914564832</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="38"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="32"/>
+    <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="61"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="67"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="46"/>
+      <c r="E141" s="28"/>
       <c r="P141" s="11"/>
-      <c r="Q141" s="66"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="43" t="s">
+      <c r="Q141" s="48"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" s="61"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="57">
+      <c r="E142" s="39">
         <v>4</v>
       </c>
       <c r="F142" s="9"/>
@@ -14365,21 +14244,21 @@
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
-      <c r="P142" s="59" t="e">
+      <c r="P142" s="41" t="e">
         <f>AVERAGE(F142:O142)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q142" s="49" t="e">
+      <c r="Q142" s="31" t="e">
         <f>_xlfn.STDEV.P(F142:O142)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="46">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" s="61"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="28">
         <v>16</v>
       </c>
       <c r="F143" s="12"/>
@@ -14392,21 +14271,21 @@
       <c r="M143" s="12"/>
       <c r="N143" s="12"/>
       <c r="O143" s="12"/>
-      <c r="P143" s="52" t="e">
+      <c r="P143" s="34" t="e">
         <f>AVERAGE(F143:O143)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q143" s="50" t="e">
+      <c r="Q143" s="32" t="e">
         <f>_xlfn.STDEV.P(F143:O143)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="46">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" s="61"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="28">
         <v>64</v>
       </c>
       <c r="F144" s="12"/>
@@ -14419,21 +14298,21 @@
       <c r="M144" s="12"/>
       <c r="N144" s="12"/>
       <c r="O144" s="12"/>
-      <c r="P144" s="52" t="e">
+      <c r="P144" s="34" t="e">
         <f>AVERAGE(F144:O144)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q144" s="50" t="e">
+      <c r="Q144" s="32" t="e">
         <f>_xlfn.STDEV.P(F144:O144)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="38"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="48">
+    <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="61"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="30">
         <v>256</v>
       </c>
       <c r="F145" s="16"/>
@@ -14446,36 +14325,36 @@
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
       <c r="O145" s="16"/>
-      <c r="P145" s="61" t="e">
+      <c r="P145" s="43" t="e">
         <f>AVERAGE(F145:O145)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q145" s="51" t="e">
+      <c r="Q145" s="33" t="e">
         <f>_xlfn.STDEV.P(F145:O145)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="38"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="28"/>
+    <row r="146" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="61"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="22"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="46"/>
+      <c r="E146" s="28"/>
       <c r="P146" s="11"/>
-      <c r="Q146" s="66"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
-      <c r="B147" s="34">
+      <c r="Q146" s="48"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A147" s="61"/>
+      <c r="B147" s="63">
         <v>14</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="66">
         <v>400</v>
       </c>
-      <c r="D147" s="43" t="s">
+      <c r="D147" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="57">
+      <c r="E147" s="39">
         <v>4</v>
       </c>
       <c r="F147" s="8">
@@ -14498,21 +14377,21 @@
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
       <c r="O147" s="10"/>
-      <c r="P147" s="59">
+      <c r="P147" s="41">
         <f>AVERAGE(F147:O147)</f>
         <v>0.56719999999999993</v>
       </c>
-      <c r="Q147" s="49">
+      <c r="Q147" s="31">
         <f>_xlfn.STDEV.P(F147:O147)</f>
         <v>1.4696938456699082E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="46">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A148" s="61"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="28">
         <v>16</v>
       </c>
       <c r="F148" s="11">
@@ -14535,21 +14414,21 @@
       <c r="M148" s="12"/>
       <c r="N148" s="12"/>
       <c r="O148" s="13"/>
-      <c r="P148" s="52">
+      <c r="P148" s="34">
         <f>AVERAGE(F148:O148)</f>
         <v>2.2665999999999999</v>
       </c>
-      <c r="Q148" s="50">
+      <c r="Q148" s="32">
         <f>_xlfn.STDEV.P(F148:O148)</f>
         <v>1.4677874505526987E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="44"/>
-      <c r="E149" s="46">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A149" s="61"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="28">
         <v>64</v>
       </c>
       <c r="F149" s="11">
@@ -14572,21 +14451,21 @@
       <c r="M149" s="12"/>
       <c r="N149" s="12"/>
       <c r="O149" s="13"/>
-      <c r="P149" s="52">
+      <c r="P149" s="34">
         <f>AVERAGE(F149:O149)</f>
         <v>9.0680000000000014</v>
       </c>
-      <c r="Q149" s="50">
+      <c r="Q149" s="32">
         <f>_xlfn.STDEV.P(F149:O149)</f>
         <v>2.677312084909007E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="38"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="32"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="48">
+    <row r="150" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="61"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="30">
         <v>256</v>
       </c>
       <c r="F150" s="15">
@@ -14609,32 +14488,32 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
       <c r="O150" s="17"/>
-      <c r="P150" s="61">
+      <c r="P150" s="43">
         <f>AVERAGE(F150:O150)</f>
         <v>36.150600000000004</v>
       </c>
-      <c r="Q150" s="51">
+      <c r="Q150" s="33">
         <f>_xlfn.STDEV.P(F150:O150)</f>
         <v>3.4713686061840776E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="38"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="32"/>
+    <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="61"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="67"/>
       <c r="D151" s="19"/>
-      <c r="E151" s="46"/>
+      <c r="E151" s="28"/>
       <c r="P151" s="11"/>
-      <c r="Q151" s="66"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="43" t="s">
+      <c r="Q151" s="48"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A152" s="61"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="57">
+      <c r="E152" s="39">
         <v>4</v>
       </c>
       <c r="F152" s="9"/>
@@ -14647,21 +14526,21 @@
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
       <c r="O152" s="9"/>
-      <c r="P152" s="59" t="e">
+      <c r="P152" s="41" t="e">
         <f>AVERAGE(F152:O152)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q152" s="49" t="e">
+      <c r="Q152" s="31" t="e">
         <f>_xlfn.STDEV.P(F152:O152)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="46">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A153" s="61"/>
+      <c r="B153" s="64"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="28">
         <v>16</v>
       </c>
       <c r="F153" s="12"/>
@@ -14674,21 +14553,21 @@
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
       <c r="O153" s="12"/>
-      <c r="P153" s="52" t="e">
+      <c r="P153" s="34" t="e">
         <f>AVERAGE(F153:O153)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q153" s="50" t="e">
+      <c r="Q153" s="32" t="e">
         <f>_xlfn.STDEV.P(F153:O153)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="46">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A154" s="61"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="28">
         <v>64</v>
       </c>
       <c r="F154" s="12"/>
@@ -14701,21 +14580,21 @@
       <c r="M154" s="12"/>
       <c r="N154" s="12"/>
       <c r="O154" s="12"/>
-      <c r="P154" s="52" t="e">
+      <c r="P154" s="34" t="e">
         <f>AVERAGE(F154:O154)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q154" s="50" t="e">
+      <c r="Q154" s="32" t="e">
         <f>_xlfn.STDEV.P(F154:O154)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="38"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="48">
+    <row r="155" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="61"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="71"/>
+      <c r="E155" s="30">
         <v>256</v>
       </c>
       <c r="F155" s="16"/>
@@ -14728,36 +14607,36 @@
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
       <c r="O155" s="16"/>
-      <c r="P155" s="61" t="e">
+      <c r="P155" s="43" t="e">
         <f>AVERAGE(F155:O155)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q155" s="51" t="e">
+      <c r="Q155" s="33" t="e">
         <f>_xlfn.STDEV.P(F155:O155)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="38"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
+    <row r="156" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="61"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="46"/>
+      <c r="E156" s="28"/>
       <c r="P156" s="11"/>
-      <c r="Q156" s="66"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
-      <c r="B157" s="34">
+      <c r="Q156" s="48"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A157" s="61"/>
+      <c r="B157" s="63">
         <v>20</v>
       </c>
-      <c r="C157" s="31">
+      <c r="C157" s="66">
         <v>400</v>
       </c>
-      <c r="D157" s="43" t="s">
+      <c r="D157" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="57">
+      <c r="E157" s="39">
         <v>4</v>
       </c>
       <c r="F157" s="8">
@@ -14780,21 +14659,21 @@
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
       <c r="O157" s="10"/>
-      <c r="P157" s="59">
+      <c r="P157" s="41">
         <f>AVERAGE(F157:O157)</f>
         <v>0.61899999999999999</v>
       </c>
-      <c r="Q157" s="49">
+      <c r="Q157" s="31">
         <f>_xlfn.STDEV.P(F157:O157)</f>
         <v>2.501199712138159E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="44"/>
-      <c r="E158" s="46">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A158" s="61"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="28">
         <v>16</v>
       </c>
       <c r="F158" s="11">
@@ -14817,21 +14696,21 @@
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
       <c r="O158" s="13"/>
-      <c r="P158" s="52">
+      <c r="P158" s="34">
         <f>AVERAGE(F158:O158)</f>
         <v>2.4569999999999999</v>
       </c>
-      <c r="Q158" s="50">
+      <c r="Q158" s="32">
         <f>_xlfn.STDEV.P(F158:O158)</f>
         <v>3.9390354149207739E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="44"/>
-      <c r="E159" s="46">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A159" s="61"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="28">
         <v>64</v>
       </c>
       <c r="F159" s="11">
@@ -14854,21 +14733,21 @@
       <c r="M159" s="12"/>
       <c r="N159" s="12"/>
       <c r="O159" s="13"/>
-      <c r="P159" s="52">
+      <c r="P159" s="34">
         <f>AVERAGE(F159:O159)</f>
         <v>9.6830000000000016</v>
       </c>
-      <c r="Q159" s="50">
+      <c r="Q159" s="32">
         <f>_xlfn.STDEV.P(F159:O159)</f>
         <v>1.2000000000000396E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="38"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="32"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="48">
+    <row r="160" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="61"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="71"/>
+      <c r="E160" s="30">
         <v>256</v>
       </c>
       <c r="F160" s="15">
@@ -14891,32 +14770,32 @@
       <c r="M160" s="16"/>
       <c r="N160" s="16"/>
       <c r="O160" s="17"/>
-      <c r="P160" s="61">
+      <c r="P160" s="43">
         <f>AVERAGE(F160:O160)</f>
         <v>38.679600000000001</v>
       </c>
-      <c r="Q160" s="51">
+      <c r="Q160" s="33">
         <f>_xlfn.STDEV.P(F160:O160)</f>
         <v>3.7269826938154053E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="38"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="32"/>
+    <row r="161" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="61"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="67"/>
       <c r="D161" s="19"/>
-      <c r="E161" s="46"/>
+      <c r="E161" s="28"/>
       <c r="P161" s="11"/>
-      <c r="Q161" s="66"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="38"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="43" t="s">
+      <c r="Q161" s="48"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A162" s="61"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E162" s="57">
+      <c r="E162" s="39">
         <v>4</v>
       </c>
       <c r="F162" s="9"/>
@@ -14929,21 +14808,21 @@
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
-      <c r="P162" s="59" t="e">
+      <c r="P162" s="41" t="e">
         <f>AVERAGE(F162:O162)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q162" s="49" t="e">
+      <c r="Q162" s="31" t="e">
         <f>_xlfn.STDEV.P(F162:O162)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="38"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="44"/>
-      <c r="E163" s="46">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A163" s="61"/>
+      <c r="B163" s="64"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="28">
         <v>16</v>
       </c>
       <c r="F163" s="12"/>
@@ -14956,21 +14835,21 @@
       <c r="M163" s="12"/>
       <c r="N163" s="12"/>
       <c r="O163" s="12"/>
-      <c r="P163" s="52" t="e">
+      <c r="P163" s="34" t="e">
         <f>AVERAGE(F163:O163)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q163" s="50" t="e">
+      <c r="Q163" s="32" t="e">
         <f>_xlfn.STDEV.P(F163:O163)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="44"/>
-      <c r="E164" s="46">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A164" s="61"/>
+      <c r="B164" s="64"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="70"/>
+      <c r="E164" s="28">
         <v>64</v>
       </c>
       <c r="F164" s="12"/>
@@ -14983,21 +14862,21 @@
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
       <c r="O164" s="12"/>
-      <c r="P164" s="52" t="e">
+      <c r="P164" s="34" t="e">
         <f>AVERAGE(F164:O164)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q164" s="50" t="e">
+      <c r="Q164" s="32" t="e">
         <f>_xlfn.STDEV.P(F164:O164)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="39"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="48">
+    <row r="165" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="62"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="71"/>
+      <c r="E165" s="30">
         <v>256</v>
       </c>
       <c r="F165" s="16"/>
@@ -15010,17 +14889,67 @@
       <c r="M165" s="16"/>
       <c r="N165" s="16"/>
       <c r="O165" s="16"/>
-      <c r="P165" s="61" t="e">
+      <c r="P165" s="43" t="e">
         <f>AVERAGE(F165:O165)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q165" s="51" t="e">
+      <c r="Q165" s="33" t="e">
         <f>_xlfn.STDEV.P(F165:O165)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A87:A125"/>
+    <mergeCell ref="A47:A85"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C77:C85"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="B47:B65"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="A7:A45"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B87:B105"/>
+    <mergeCell ref="C87:C95"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="B107:B115"/>
+    <mergeCell ref="C107:C115"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="D122:D125"/>
     <mergeCell ref="A127:A165"/>
     <mergeCell ref="B127:B145"/>
     <mergeCell ref="C127:C135"/>
@@ -15037,56 +14966,6 @@
     <mergeCell ref="C157:C165"/>
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D162:D165"/>
-    <mergeCell ref="B107:B115"/>
-    <mergeCell ref="C107:C115"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="B117:B125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="B87:B105"/>
-    <mergeCell ref="C87:C95"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="C97:C105"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="C27:C35"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="A7:A45"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="A87:A125"/>
-    <mergeCell ref="A47:A85"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C77:C85"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="B47:B65"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D60"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:P6">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
@@ -15100,26 +14979,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A50:U104"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -15139,7 +15018,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -15159,7 +15038,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -15179,7 +15058,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -15199,7 +15078,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -15219,7 +15098,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -15239,7 +15118,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -15259,7 +15138,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -15279,7 +15158,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -15299,7 +15178,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -15319,7 +15198,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -15339,7 +15218,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -15359,7 +15238,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="13"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -15379,7 +15258,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="13"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -15399,7 +15278,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="13"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -15419,7 +15298,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="13"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -15439,7 +15318,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="13"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -15459,7 +15338,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="13"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -15478,14 +15357,14 @@
         <v>22</v>
       </c>
       <c r="Q69" s="12"/>
-      <c r="R69" s="23" t="s">
+      <c r="R69" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
+      <c r="S69" s="76"/>
+      <c r="T69" s="76"/>
       <c r="U69" s="13"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="12" t="s">
         <v>0</v>
@@ -15496,11 +15375,11 @@
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="13"/>
       <c r="N70" s="11"/>
       <c r="O70" s="18">
@@ -15510,15 +15389,15 @@
         <v>0.2072</v>
       </c>
       <c r="Q70" s="12"/>
-      <c r="R70" s="24">
+      <c r="R70" s="77">
         <f>CORREL(O70:O73,P70:P73)</f>
         <v>0.9754790835694912</v>
       </c>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
       <c r="U70" s="13"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="12">
         <v>4</v>
@@ -15529,12 +15408,12 @@
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="24">
+      <c r="G71" s="77">
         <f>CORREL(B71:B74,D71:D74)</f>
         <v>0.99999997325895051</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
       <c r="J71" s="13"/>
       <c r="N71" s="11"/>
       <c r="O71" s="18">
@@ -15544,12 +15423,12 @@
         <v>1.9102193816795552</v>
       </c>
       <c r="Q71" s="12"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="77"/>
       <c r="U71" s="13"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="12">
         <v>16</v>
@@ -15560,9 +15439,9 @@
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
       <c r="J72" s="13"/>
       <c r="N72" s="11"/>
       <c r="O72" s="12">
@@ -15577,7 +15456,7 @@
       <c r="T72" s="12"/>
       <c r="U72" s="13"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="12">
         <v>64</v>
@@ -15605,7 +15484,7 @@
       <c r="T73" s="12"/>
       <c r="U73" s="13"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="12">
         <v>256</v>
@@ -15629,7 +15508,7 @@
       <c r="T74" s="12"/>
       <c r="U74" s="13"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -15649,7 +15528,7 @@
       <c r="T75" s="12"/>
       <c r="U75" s="13"/>
     </row>
-    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -15669,11 +15548,11 @@
       <c r="T76" s="16"/>
       <c r="U76" s="17"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="O77" s="6"/>
     </row>
-    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -15685,7 +15564,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -15697,7 +15576,7 @@
       <c r="I81" s="12"/>
       <c r="J81" s="13"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -15709,7 +15588,7 @@
       <c r="I82" s="12"/>
       <c r="J82" s="13"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -15721,7 +15600,7 @@
       <c r="I83" s="12"/>
       <c r="J83" s="13"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -15733,7 +15612,7 @@
       <c r="I84" s="12"/>
       <c r="J84" s="13"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -15745,7 +15624,7 @@
       <c r="I85" s="12"/>
       <c r="J85" s="13"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -15757,7 +15636,7 @@
       <c r="I86" s="12"/>
       <c r="J86" s="13"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -15769,7 +15648,7 @@
       <c r="I87" s="12"/>
       <c r="J87" s="13"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -15781,7 +15660,7 @@
       <c r="I88" s="12"/>
       <c r="J88" s="13"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -15793,7 +15672,7 @@
       <c r="I89" s="12"/>
       <c r="J89" s="13"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -15805,7 +15684,7 @@
       <c r="I90" s="12"/>
       <c r="J90" s="13"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -15817,7 +15696,7 @@
       <c r="I91" s="12"/>
       <c r="J91" s="13"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -15829,7 +15708,7 @@
       <c r="I92" s="12"/>
       <c r="J92" s="13"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -15841,7 +15720,7 @@
       <c r="I93" s="12"/>
       <c r="J93" s="13"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -15853,7 +15732,7 @@
       <c r="I94" s="12"/>
       <c r="J94" s="13"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -15865,7 +15744,7 @@
       <c r="I95" s="12"/>
       <c r="J95" s="13"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -15877,7 +15756,7 @@
       <c r="I96" s="12"/>
       <c r="J96" s="13"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -15889,25 +15768,25 @@
       <c r="I97" s="12"/>
       <c r="J97" s="13"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="12"/>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="76"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
       <c r="J98" s="13"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="12">
         <v>9</v>
@@ -15918,15 +15797,15 @@
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="24">
+      <c r="G99" s="77">
         <f>CORREL(B99:B103,D99:D103)</f>
         <v>0.9916735466464186</v>
       </c>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
       <c r="J99" s="13"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="12">
         <v>14</v>
@@ -15937,12 +15816,12 @@
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
       <c r="J100" s="13"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="12">
         <v>20</v>
@@ -15958,9 +15837,9 @@
       <c r="I101" s="12"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
-      <c r="B102" s="69">
+      <c r="B102" s="51">
         <v>25</v>
       </c>
       <c r="C102" s="12"/>
@@ -15974,9 +15853,9 @@
       <c r="I102" s="12"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
-      <c r="B103" s="69">
+      <c r="B103" s="51">
         <v>30</v>
       </c>
       <c r="C103" s="12"/>
@@ -15990,7 +15869,7 @@
       <c r="I103" s="12"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -16018,26 +15897,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N13" activeCellId="4" sqref="N5 N7 N9 N11 N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -16054,28 +15933,28 @@
       <c r="N1" s="9"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="12"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -16092,239 +15971,239 @@
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="49" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="57" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="63">
         <v>9</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="50">
         <v>128</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="45">
         <v>4</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="45">
         <v>0.2072</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="53">
         <v>9</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="66">
         <v>400</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="45">
         <v>4</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="45">
         <v>1.9036000000000002</v>
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="72"/>
+    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="65"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="12"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="72"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="68">
+    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="50">
         <v>400</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="45">
         <v>4</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="46">
         <v>1.9102193816795552</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="73">
+      <c r="I7" s="61"/>
+      <c r="J7" s="53">
         <v>14</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="45">
         <v>4</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="45">
         <v>2.1366000000000001</v>
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="68">
+    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="50">
         <v>700</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="45">
         <v>4</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="45">
         <v>6.0108000000000006</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="73">
+      <c r="I9" s="61"/>
+      <c r="J9" s="53">
         <v>20</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="76" t="s">
+      <c r="K9" s="67"/>
+      <c r="L9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="45">
         <v>4</v>
       </c>
-      <c r="N9" s="63">
+      <c r="N9" s="45">
         <v>2.3975999999999997</v>
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="32"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="68">
+    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="50">
         <v>1024</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="45">
         <v>4</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="46">
         <v>12.661588794233001</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="73">
+      <c r="I11" s="61"/>
+      <c r="J11" s="53">
         <v>25</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="76" t="s">
+      <c r="K11" s="67"/>
+      <c r="L11" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="45">
         <v>4</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="45">
         <v>2.847</v>
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -16332,16 +16211,16 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="32"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -16350,23 +16229,23 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="73">
+      <c r="I13" s="62"/>
+      <c r="J13" s="53">
         <v>30</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="76" t="s">
+      <c r="K13" s="68"/>
+      <c r="L13" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="45">
         <v>4</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="45">
         <v>3.0651999999999999</v>
       </c>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -16376,7 +16255,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="15"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
